--- a/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
@@ -807,55 +807,55 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1.001156864143009</v>
+        <v>1.001156862661844</v>
       </c>
       <c r="D2">
-        <v>330.0957583999805</v>
+        <v>330.0957588883418</v>
       </c>
       <c r="E2">
-        <v>1447.744338444401</v>
+        <v>1447.744338428079</v>
       </c>
       <c r="F2">
-        <v>1117.648580044421</v>
+        <v>1117.648579539737</v>
       </c>
       <c r="G2">
-        <v>215902.704359142</v>
+        <v>215902.7009288698</v>
       </c>
       <c r="H2">
-        <v>46565.17915805725</v>
+        <v>46564.9046433331</v>
       </c>
       <c r="I2">
-        <v>2838.930968744827</v>
+        <v>2838.931105581772</v>
       </c>
       <c r="J2">
-        <v>207.43103571825</v>
+        <v>207.4016139884059</v>
       </c>
       <c r="K2">
-        <v>1.353410293648337</v>
+        <v>1.353410252465042</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1.45910555859885E-09</v>
+        <v>1.485888190266849E-09</v>
       </c>
       <c r="O2">
-        <v>1.162318972383129</v>
+        <v>1.162331196627179</v>
       </c>
       <c r="Q2">
         <v>0.0539</v>
       </c>
       <c r="R2">
-        <v>0.1761671464263487</v>
+        <v>0.176134257522376</v>
       </c>
       <c r="S2">
-        <v>0.9979706334090913</v>
+        <v>0.9979706319373389</v>
       </c>
       <c r="T2">
-        <v>1.004363505462904</v>
+        <v>1.004363503972236</v>
       </c>
       <c r="U2">
-        <v>3046.362004463077</v>
+        <v>3046.332719570178</v>
       </c>
       <c r="V2" t="s">
         <v>57</v>
@@ -887,55 +887,55 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>1.000361859686566</v>
+        <v>1.000361813494442</v>
       </c>
       <c r="D3">
-        <v>330.3580910713431</v>
+        <v>330.3581063257659</v>
       </c>
       <c r="E3">
-        <v>1448.517749072941</v>
+        <v>1448.51774904885</v>
       </c>
       <c r="F3">
-        <v>1118.159658001598</v>
+        <v>1118.159642723084</v>
       </c>
       <c r="G3">
-        <v>213799.9561549903</v>
+        <v>213799.9609598223</v>
       </c>
       <c r="H3">
-        <v>48427.85084208724</v>
+        <v>48424.24286869316</v>
       </c>
       <c r="I3">
-        <v>3050.192072415483</v>
+        <v>3050.191976563085</v>
       </c>
       <c r="J3">
-        <v>553.9251808771511</v>
+        <v>553.7731528447774</v>
       </c>
       <c r="K3">
-        <v>1.480902517937961</v>
+        <v>1.48090255494528</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>1.131764681971958E-10</v>
+        <v>1.915784197947801E-11</v>
       </c>
       <c r="O3">
-        <v>0.9028087665141873</v>
+        <v>0.9027261206850676</v>
       </c>
       <c r="Q3">
-        <v>0.0779</v>
+        <v>0.0772</v>
       </c>
       <c r="R3">
-        <v>0.4112854334594145</v>
+        <v>0.411162486683227</v>
       </c>
       <c r="S3">
-        <v>0.9971084711662954</v>
+        <v>0.9971105311931019</v>
       </c>
       <c r="T3">
-        <v>1.00363654816706</v>
+        <v>1.003634368096894</v>
       </c>
       <c r="U3">
-        <v>3604.117253292634</v>
+        <v>3603.965129407862</v>
       </c>
       <c r="V3" t="s">
         <v>58</v>
@@ -967,55 +967,55 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>1.001203419125634</v>
+        <v>1.001203534798631</v>
       </c>
       <c r="D4">
-        <v>330.0804092691212</v>
+        <v>330.0803711336287</v>
       </c>
       <c r="E4">
-        <v>1448.044887800634</v>
+        <v>1448.044888481254</v>
       </c>
       <c r="F4">
-        <v>1117.964478531512</v>
+        <v>1117.964517347625</v>
       </c>
       <c r="G4">
-        <v>200968.9453073254</v>
+        <v>200969.205816166</v>
       </c>
       <c r="H4">
-        <v>39896.84778874456</v>
+        <v>39896.70150131476</v>
       </c>
       <c r="I4">
-        <v>1674.821468337182</v>
+        <v>1674.819918540171</v>
       </c>
       <c r="J4">
-        <v>426.3724266196998</v>
+        <v>426.3044034446668</v>
       </c>
       <c r="K4">
-        <v>1.427474854650639</v>
+        <v>1.427475645258929</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1.159893858737604E-08</v>
+        <v>4.792209573611927E-09</v>
       </c>
       <c r="O4">
-        <v>1.128321910387272</v>
+        <v>1.128324226668517</v>
       </c>
       <c r="Q4">
         <v>0.0435</v>
       </c>
       <c r="R4">
-        <v>0.2764993614489655</v>
+        <v>0.276485214711268</v>
       </c>
       <c r="S4">
-        <v>0.9980482384255643</v>
+        <v>0.9980483533706483</v>
       </c>
       <c r="T4">
-        <v>1.004378612359057</v>
+        <v>1.004378728766902</v>
       </c>
       <c r="U4">
-        <v>2101.193894956882</v>
+        <v>2101.124321984837</v>
       </c>
       <c r="V4" t="s">
         <v>59</v>
@@ -1047,55 +1047,55 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>1.000463262323479</v>
+        <v>1.000463255801072</v>
       </c>
       <c r="D5">
-        <v>330.3246074015058</v>
+        <v>330.3246095550196</v>
       </c>
       <c r="E5">
-        <v>1448.386875294705</v>
+        <v>1448.386875299098</v>
       </c>
       <c r="F5">
-        <v>1118.0622678932</v>
+        <v>1118.062265744079</v>
       </c>
       <c r="G5">
-        <v>215030.7237067476</v>
+        <v>215030.7260549405</v>
       </c>
       <c r="H5">
-        <v>60122.06437364854</v>
+        <v>60122.56928737904</v>
       </c>
       <c r="I5">
-        <v>3010.880739510677</v>
+        <v>3010.880690886481</v>
       </c>
       <c r="J5">
-        <v>702.6709771565238</v>
+        <v>702.6382790976133</v>
       </c>
       <c r="K5">
-        <v>1.519435096736422</v>
+        <v>1.519435113097521</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>8.890222447099916E-10</v>
+        <v>8.906685944332082E-10</v>
       </c>
       <c r="O5">
-        <v>0.9028087762824292</v>
+        <v>0.9027261208994443</v>
       </c>
       <c r="Q5">
-        <v>0.0518</v>
+        <v>0.0519</v>
       </c>
       <c r="R5">
-        <v>0.4665105034843767</v>
+        <v>0.4665655453707216</v>
       </c>
       <c r="S5">
-        <v>0.9972877578644761</v>
+        <v>0.9972874504303466</v>
       </c>
       <c r="T5">
-        <v>1.003659053884938</v>
+        <v>1.003659352131677</v>
       </c>
       <c r="U5">
-        <v>3713.551716667201</v>
+        <v>3713.518969984095</v>
       </c>
       <c r="V5" t="s">
         <v>60</v>
@@ -1127,55 +1127,55 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>1.001018655839044</v>
+        <v>1.001018714221222</v>
       </c>
       <c r="D6">
-        <v>330.1413339490957</v>
+        <v>330.1413146943407</v>
       </c>
       <c r="E6">
-        <v>1448.136827159305</v>
+        <v>1448.136827523939</v>
       </c>
       <c r="F6">
-        <v>1117.995493210209</v>
+        <v>1117.995512829599</v>
       </c>
       <c r="G6">
-        <v>186270.2502647584</v>
+        <v>186271.0370431452</v>
       </c>
       <c r="H6">
-        <v>24003.80596428545</v>
+        <v>24002.35235459549</v>
       </c>
       <c r="I6">
-        <v>1314.630491493923</v>
+        <v>1314.688715120177</v>
       </c>
       <c r="J6">
-        <v>258.4560598628723</v>
+        <v>258.3647629723327</v>
       </c>
       <c r="K6">
-        <v>1.141976120766523</v>
+        <v>1.141979167200063</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6">
-        <v>0.4531491874122474</v>
+        <v>0.4531543931906853</v>
       </c>
       <c r="O6">
-        <v>1.075260504633927</v>
+        <v>1.075488560242321</v>
       </c>
       <c r="Q6">
         <v>0.0385</v>
       </c>
       <c r="R6">
-        <v>0.4149730231600083</v>
+        <v>0.4146439925578138</v>
       </c>
       <c r="S6">
-        <v>0.9978797030178748</v>
+        <v>0.9978797610344818</v>
       </c>
       <c r="T6">
-        <v>1.004177418896824</v>
+        <v>1.004177477648039</v>
       </c>
       <c r="U6">
-        <v>1573.086551356795</v>
+        <v>1573.05347809251</v>
       </c>
       <c r="V6" t="s">
         <v>61</v>
@@ -1207,55 +1207,55 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>1.0004160067935</v>
+        <v>1.000416166787789</v>
       </c>
       <c r="D7">
-        <v>330.3402105748673</v>
+        <v>330.3401577443067</v>
       </c>
       <c r="E7">
-        <v>1448.321952761823</v>
+        <v>1448.321952735371</v>
       </c>
       <c r="F7">
-        <v>1117.981742186956</v>
+        <v>1117.981794991064</v>
       </c>
       <c r="G7">
-        <v>220569.3555395899</v>
+        <v>220569.35749501</v>
       </c>
       <c r="H7">
-        <v>55927.52535817028</v>
+        <v>55930.85218171887</v>
       </c>
       <c r="I7">
-        <v>3180.623099251378</v>
+        <v>3180.623084596167</v>
       </c>
       <c r="J7">
-        <v>610.0630599818938</v>
+        <v>610.0843760544406</v>
       </c>
       <c r="K7">
-        <v>1.55205953649635</v>
+        <v>1.552059543639453</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2.198079496196215E-10</v>
+        <v>2.210014393710935E-10</v>
       </c>
       <c r="O7">
-        <v>1.094125654879193</v>
+        <v>1.093966515980028</v>
       </c>
       <c r="Q7">
-        <v>0.0413</v>
+        <v>0.0412</v>
       </c>
       <c r="R7">
-        <v>0.2565263475237663</v>
+        <v>0.2568146536385955</v>
       </c>
       <c r="S7">
-        <v>0.997272399939675</v>
+        <v>0.9972728598741181</v>
       </c>
       <c r="T7">
-        <v>1.003579494902391</v>
+        <v>1.003579351147662</v>
       </c>
       <c r="U7">
-        <v>3790.686159233272</v>
+        <v>3790.707460650608</v>
       </c>
       <c r="V7" t="s">
         <v>62</v>
@@ -1287,55 +1287,55 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>1.000438269246964</v>
+        <v>1.000438239106007</v>
       </c>
       <c r="D8">
-        <v>330.3328596130027</v>
+        <v>330.3328695651899</v>
       </c>
       <c r="E8">
-        <v>1448.280386516989</v>
+        <v>1448.280386527096</v>
       </c>
       <c r="F8">
-        <v>1117.947526903986</v>
+        <v>1117.947516961906</v>
       </c>
       <c r="G8">
-        <v>194207.0752088048</v>
+        <v>194207.0685325385</v>
       </c>
       <c r="H8">
-        <v>38832.8601988498</v>
+        <v>38833.8509434377</v>
       </c>
       <c r="I8">
-        <v>1145.33760091939</v>
+        <v>1145.338090774124</v>
       </c>
       <c r="J8">
-        <v>421.7114554492173</v>
+        <v>421.7608218178106</v>
       </c>
       <c r="K8">
-        <v>1.416068767797739</v>
+        <v>1.416068662724578</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3.164135620181696E-15</v>
+        <v>3.33066907387547E-15</v>
       </c>
       <c r="O8">
-        <v>1.163684140164999</v>
+        <v>1.163611001704287</v>
       </c>
       <c r="Q8">
         <v>0.0438</v>
       </c>
       <c r="R8">
-        <v>0.2478291889913201</v>
+        <v>0.2479657983611165</v>
       </c>
       <c r="S8">
-        <v>0.9972869988265929</v>
+        <v>0.9972869688752181</v>
       </c>
       <c r="T8">
-        <v>1.003609517835263</v>
+        <v>1.003609487502918</v>
       </c>
       <c r="U8">
-        <v>1567.049056368608</v>
+        <v>1567.098912591935</v>
       </c>
       <c r="V8" t="s">
         <v>63</v>
@@ -1367,55 +1367,55 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>1.000246521927485</v>
+        <v>1.00024648209389</v>
       </c>
       <c r="D9">
-        <v>330.3961844424105</v>
+        <v>330.3961976000351</v>
       </c>
       <c r="E9">
-        <v>1448.539551836885</v>
+        <v>1448.539554282233</v>
       </c>
       <c r="F9">
-        <v>1118.143367394474</v>
+        <v>1118.143356682198</v>
       </c>
       <c r="G9">
-        <v>186359.8340226251</v>
+        <v>186360.9110065502</v>
       </c>
       <c r="H9">
-        <v>38529.35015043126</v>
+        <v>38526.15320144006</v>
       </c>
       <c r="I9">
-        <v>828.9112921692404</v>
+        <v>828.9340383794042</v>
       </c>
       <c r="J9">
-        <v>468.1428635628631</v>
+        <v>468.0145413567935</v>
       </c>
       <c r="K9">
-        <v>1.252850712391251</v>
+        <v>1.252845522224083</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>0.1398262655198427</v>
+        <v>0.1398524157712187</v>
       </c>
       <c r="O9">
-        <v>0.9028087666155058</v>
+        <v>0.9027261219529328</v>
       </c>
       <c r="Q9">
-        <v>0.0756</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="R9">
-        <v>0.4505439935336595</v>
+        <v>0.4504061814775351</v>
       </c>
       <c r="S9">
-        <v>0.9970008002417164</v>
+        <v>0.9970001591066461</v>
       </c>
       <c r="T9">
-        <v>1.003513445435491</v>
+        <v>1.003514014786304</v>
       </c>
       <c r="U9">
-        <v>1297.054155732103</v>
+        <v>1296.948579736198</v>
       </c>
       <c r="V9" t="s">
         <v>64</v>
@@ -1447,55 +1447,55 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>1.000147387234094</v>
+        <v>1.000147305927082</v>
       </c>
       <c r="D10">
-        <v>330.4289333400832</v>
+        <v>330.4289602023155</v>
       </c>
       <c r="E10">
-        <v>1448.664948108166</v>
+        <v>1448.664947542881</v>
       </c>
       <c r="F10">
-        <v>1118.236014768083</v>
+        <v>1118.235987340566</v>
       </c>
       <c r="G10">
-        <v>186386.2164096255</v>
+        <v>186387.0034523646</v>
       </c>
       <c r="H10">
-        <v>33045.99355230272</v>
+        <v>33046.55718231014</v>
       </c>
       <c r="I10">
-        <v>1105.549578334255</v>
+        <v>1105.609598676268</v>
       </c>
       <c r="J10">
-        <v>423.8269472931865</v>
+        <v>423.7891519862713</v>
       </c>
       <c r="K10">
-        <v>1.141976164786438</v>
+        <v>1.141979169116186</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>0.2518016924759379</v>
+        <v>0.2518075144887891</v>
       </c>
       <c r="O10">
-        <v>0.9028087665448217</v>
+        <v>0.9027261206935806</v>
       </c>
       <c r="Q10">
-        <v>0.0814</v>
+        <v>0.0815</v>
       </c>
       <c r="R10">
-        <v>0.36105532489777</v>
+        <v>0.3611504323540247</v>
       </c>
       <c r="S10">
-        <v>0.9968848663538009</v>
+        <v>0.9968844848664735</v>
       </c>
       <c r="T10">
-        <v>1.003431332838867</v>
+        <v>1.003431555669575</v>
       </c>
       <c r="U10">
-        <v>1529.376525627442</v>
+        <v>1529.398750662539</v>
       </c>
       <c r="V10" t="s">
         <v>65</v>
@@ -1527,55 +1527,55 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1.000270251878034</v>
+        <v>1.000270190366446</v>
       </c>
       <c r="D11">
-        <v>330.3883462755712</v>
+        <v>330.3883665927935</v>
       </c>
       <c r="E11">
-        <v>1448.599158203406</v>
+        <v>1448.599158244529</v>
       </c>
       <c r="F11">
-        <v>1118.210811927835</v>
+        <v>1118.210791651736</v>
       </c>
       <c r="G11">
-        <v>186448.8380246965</v>
+        <v>186450.7849793156</v>
       </c>
       <c r="H11">
-        <v>30950.93161546335</v>
+        <v>30951.41914779498</v>
       </c>
       <c r="I11">
-        <v>1429.117013923746</v>
+        <v>1429.250193826431</v>
       </c>
       <c r="J11">
-        <v>394.7637624174246</v>
+        <v>394.7254015058338</v>
       </c>
       <c r="K11">
-        <v>1.141976123019026</v>
+        <v>1.141979167392954</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.3277909102249204</v>
+        <v>0.3278108641366846</v>
       </c>
       <c r="O11">
-        <v>0.9028089740601313</v>
+        <v>0.9027261206631648</v>
       </c>
       <c r="Q11">
-        <v>0.08119999999999999</v>
+        <v>0.0842</v>
       </c>
       <c r="R11">
-        <v>0.4176140535104744</v>
+        <v>0.4177024994537846</v>
       </c>
       <c r="S11">
-        <v>0.9970075322451681</v>
+        <v>0.9969984476954228</v>
       </c>
       <c r="T11">
-        <v>1.003554396205184</v>
+        <v>1.003563476787982</v>
       </c>
       <c r="U11">
-        <v>1823.880776341171</v>
+        <v>1823.975595332265</v>
       </c>
       <c r="V11" t="s">
         <v>66</v>
@@ -1607,55 +1607,55 @@
         <v>43</v>
       </c>
       <c r="C12">
-        <v>1.000301716327858</v>
+        <v>1.000301696346043</v>
       </c>
       <c r="D12">
-        <v>330.3779539235697</v>
+        <v>330.3779605231298</v>
       </c>
       <c r="E12">
-        <v>1448.490884215198</v>
+        <v>1448.490883371716</v>
       </c>
       <c r="F12">
-        <v>1118.112930291628</v>
+        <v>1118.112922848587</v>
       </c>
       <c r="G12">
-        <v>186540.161406723</v>
+        <v>186540.6589344398</v>
       </c>
       <c r="H12">
-        <v>27275.07487663532</v>
+        <v>27273.75752056472</v>
       </c>
       <c r="I12">
-        <v>1662.069073445674</v>
+        <v>1662.100498347156</v>
       </c>
       <c r="J12">
-        <v>328.5890316115111</v>
+        <v>328.5295446550987</v>
       </c>
       <c r="K12">
-        <v>1.141976121445956</v>
+        <v>1.141979167272578</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0.4217442987502631</v>
+        <v>0.4217492032346443</v>
       </c>
       <c r="O12">
-        <v>0.9028087668068385</v>
+        <v>0.9027261208949983</v>
       </c>
       <c r="Q12">
         <v>0.07149999999999999</v>
       </c>
       <c r="R12">
-        <v>0.5132153345732273</v>
+        <v>0.5131536500483289</v>
       </c>
       <c r="S12">
-        <v>0.997067970499173</v>
+        <v>0.9970679506463426</v>
       </c>
       <c r="T12">
-        <v>1.003556506133144</v>
+        <v>1.003556486021084</v>
       </c>
       <c r="U12">
-        <v>1990.658105057185</v>
+        <v>1990.630043002255</v>
       </c>
       <c r="V12" t="s">
         <v>67</v>
@@ -1687,55 +1687,55 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <v>1.000311939297115</v>
+        <v>1.000311914702563</v>
       </c>
       <c r="D13">
-        <v>330.3745775331324</v>
+        <v>330.3745856560136</v>
       </c>
       <c r="E13">
-        <v>1448.481720835078</v>
+        <v>1448.481722009104</v>
       </c>
       <c r="F13">
-        <v>1118.107143301945</v>
+        <v>1118.107136353091</v>
       </c>
       <c r="G13">
-        <v>186565.3839273517</v>
+        <v>186569.6505394095</v>
       </c>
       <c r="H13">
-        <v>25867.16024599906</v>
+        <v>25867.15529077611</v>
       </c>
       <c r="I13">
-        <v>1316.851093410713</v>
+        <v>1317.132087621014</v>
       </c>
       <c r="J13">
-        <v>290.4310745260356</v>
+        <v>290.4045058866883</v>
       </c>
       <c r="K13">
-        <v>1.141976120733075</v>
+        <v>1.141979167181807</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.4207132783051576</v>
+        <v>0.4207614221269546</v>
       </c>
       <c r="O13">
-        <v>0.9028087667737467</v>
+        <v>0.9027261502758491</v>
       </c>
       <c r="Q13">
         <v>0.0721</v>
       </c>
       <c r="R13">
-        <v>0.5654772241819934</v>
+        <v>0.5655134927696559</v>
       </c>
       <c r="S13">
-        <v>0.9970763225212815</v>
+        <v>0.9970762980855795</v>
       </c>
       <c r="T13">
-        <v>1.003568624270014</v>
+        <v>1.003568599515058</v>
       </c>
       <c r="U13">
-        <v>1607.282167936748</v>
+        <v>1607.536593507702</v>
       </c>
       <c r="V13" t="s">
         <v>68</v>
@@ -1767,55 +1767,55 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>1.00036223323223</v>
+        <v>1.000362202375852</v>
       </c>
       <c r="D14">
-        <v>330.3579677121957</v>
+        <v>330.357977902155</v>
       </c>
       <c r="E14">
-        <v>1448.452335485299</v>
+        <v>1448.452336783721</v>
       </c>
       <c r="F14">
-        <v>1118.094367773104</v>
+        <v>1118.094358881566</v>
       </c>
       <c r="G14">
-        <v>186354.3256337453</v>
+        <v>186355.1127000043</v>
       </c>
       <c r="H14">
-        <v>32615.63771745026</v>
+        <v>32616.5270377246</v>
       </c>
       <c r="I14">
-        <v>1013.880013930564</v>
+        <v>1013.89637622947</v>
       </c>
       <c r="J14">
-        <v>363.031544888914</v>
+        <v>363.0311670146453</v>
       </c>
       <c r="K14">
-        <v>1.338557313158279</v>
+        <v>1.33855085069186</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>0.01405012505395725</v>
+        <v>0.01408050141126937</v>
       </c>
       <c r="O14">
-        <v>0.9028087665545821</v>
+        <v>0.9027261241604353</v>
       </c>
       <c r="Q14">
         <v>0.0727</v>
       </c>
       <c r="R14">
-        <v>0.6198570635400972</v>
+        <v>0.6199512808543294</v>
       </c>
       <c r="S14">
-        <v>0.9971244864811655</v>
+        <v>0.9971244558242027</v>
       </c>
       <c r="T14">
-        <v>1.003621074950366</v>
+        <v>1.003621043892622</v>
       </c>
       <c r="U14">
-        <v>1376.911558819478</v>
+        <v>1376.927543244116</v>
       </c>
       <c r="V14" t="s">
         <v>69</v>
@@ -1847,55 +1847,55 @@
         <v>46</v>
       </c>
       <c r="C15">
-        <v>1.000369363129631</v>
+        <v>1.00036934254286</v>
       </c>
       <c r="D15">
-        <v>330.3556131634637</v>
+        <v>330.3556199619079</v>
       </c>
       <c r="E15">
-        <v>1448.455617177363</v>
+        <v>1448.455617604829</v>
       </c>
       <c r="F15">
-        <v>1118.100004013899</v>
+        <v>1118.099997642921</v>
       </c>
       <c r="G15">
-        <v>186429.4136797213</v>
+        <v>186430.4908492587</v>
       </c>
       <c r="H15">
-        <v>29027.11858897495</v>
+        <v>29027.30056266392</v>
       </c>
       <c r="I15">
-        <v>656.2962736412685</v>
+        <v>656.2867677972048</v>
       </c>
       <c r="J15">
-        <v>327.8243209479538</v>
+        <v>327.8017567846139</v>
       </c>
       <c r="K15">
-        <v>1.259298294395619</v>
+        <v>1.259297822883219</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.1867560387866359</v>
+        <v>0.1867712290852031</v>
       </c>
       <c r="O15">
-        <v>0.9028087667448844</v>
+        <v>0.9027261207291524</v>
       </c>
       <c r="Q15">
-        <v>0.0723</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="R15">
-        <v>0.6026702673598183</v>
+        <v>0.6027207671158803</v>
       </c>
       <c r="S15">
-        <v>0.9971327737372495</v>
+        <v>0.9971324524239552</v>
       </c>
       <c r="T15">
-        <v>1.003627032210334</v>
+        <v>1.003627316280687</v>
       </c>
       <c r="U15">
-        <v>984.1205945892223</v>
+        <v>984.0885245818188</v>
       </c>
       <c r="V15" t="s">
         <v>70</v>
@@ -1927,55 +1927,55 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>1.00037104582752</v>
+        <v>1.000371021664416</v>
       </c>
       <c r="D16">
-        <v>330.3550574809544</v>
+        <v>330.3550654603973</v>
       </c>
       <c r="E16">
-        <v>1448.225771296317</v>
+        <v>1448.225767632338</v>
       </c>
       <c r="F16">
-        <v>1117.870713815362</v>
+        <v>1117.87070217194</v>
       </c>
       <c r="G16">
-        <v>182380.7474113207</v>
+        <v>182383.2633362079</v>
       </c>
       <c r="H16">
-        <v>11320.02210645862</v>
+        <v>11320.38458994558</v>
       </c>
       <c r="I16">
-        <v>5790.79318144324</v>
+        <v>5790.470891502586</v>
       </c>
       <c r="J16">
-        <v>98.61119477717214</v>
+        <v>98.63445843819724</v>
       </c>
       <c r="K16">
-        <v>1.141976120848699</v>
+        <v>1.141979167183938</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0.6630366556466795</v>
+        <v>0.6629511109506141</v>
       </c>
       <c r="O16">
-        <v>1.199668377143911</v>
+        <v>1.199585416023738</v>
       </c>
       <c r="Q16">
         <v>0.0468</v>
       </c>
       <c r="R16">
-        <v>0.1910143465646402</v>
+        <v>0.1911858959757372</v>
       </c>
       <c r="S16">
-        <v>0.9972111709290139</v>
+        <v>0.9972111469183175</v>
       </c>
       <c r="T16">
-        <v>1.00355100984902</v>
+        <v>1.003550985532054</v>
       </c>
       <c r="U16">
-        <v>5889.404376220413</v>
+        <v>5889.105349940783</v>
       </c>
       <c r="V16" t="s">
         <v>71</v>
@@ -2007,55 +2007,55 @@
         <v>48</v>
       </c>
       <c r="C17">
-        <v>1.000535511918839</v>
+        <v>1.000535458314477</v>
       </c>
       <c r="D17">
-        <v>330.3007543558738</v>
+        <v>330.3007720519595</v>
       </c>
       <c r="E17">
-        <v>1448.417168779216</v>
+        <v>1448.417168715479</v>
       </c>
       <c r="F17">
-        <v>1118.116414423342</v>
+        <v>1118.116396663519</v>
       </c>
       <c r="G17">
-        <v>186410.8591223153</v>
+        <v>186413.0958886306</v>
       </c>
       <c r="H17">
-        <v>30483.44915151597</v>
+        <v>30486.38123383373</v>
       </c>
       <c r="I17">
-        <v>2156.608405532311</v>
+        <v>2156.754655965494</v>
       </c>
       <c r="J17">
-        <v>381.4435603743244</v>
+        <v>381.4914027986494</v>
       </c>
       <c r="K17">
-        <v>1.141976120849561</v>
+        <v>1.141979167182616</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0.4622510075367197</v>
+        <v>0.4622756405401924</v>
       </c>
       <c r="O17">
-        <v>0.9028087665198021</v>
+        <v>0.902726130905902</v>
       </c>
       <c r="Q17">
         <v>0.0746</v>
       </c>
       <c r="R17">
-        <v>0.4347506742243409</v>
+        <v>0.435001925425629</v>
       </c>
       <c r="S17">
-        <v>0.9972909270486158</v>
+        <v>0.9972908737913516</v>
       </c>
       <c r="T17">
-        <v>1.003801277554049</v>
+        <v>1.003801223599185</v>
       </c>
       <c r="U17">
-        <v>2538.051965906635</v>
+        <v>2538.246058764143</v>
       </c>
       <c r="V17" t="s">
         <v>72</v>
@@ -2087,55 +2087,55 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>1.0005562113716</v>
+        <v>1.00055619087701</v>
       </c>
       <c r="D18">
-        <v>330.2939211117402</v>
+        <v>330.2939278772158</v>
       </c>
       <c r="E18">
-        <v>1448.113652667492</v>
+        <v>1448.113652871835</v>
       </c>
       <c r="F18">
-        <v>1117.819731555752</v>
+        <v>1117.81972499462</v>
       </c>
       <c r="G18">
-        <v>200343.9904054607</v>
+        <v>200344.0491382822</v>
       </c>
       <c r="H18">
-        <v>50301.6118452348</v>
+        <v>50303.17365272983</v>
       </c>
       <c r="I18">
-        <v>1714.593737013242</v>
+        <v>1714.594770248772</v>
       </c>
       <c r="J18">
-        <v>406.3929121856111</v>
+        <v>406.4744128841609</v>
       </c>
       <c r="K18">
-        <v>1.439798470051464</v>
+        <v>1.439798314273101</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>1.118883474759969E-08</v>
+        <v>1.054711873393899E-15</v>
       </c>
       <c r="O18">
-        <v>1.200495144813194</v>
+        <v>1.200422405709341</v>
       </c>
       <c r="Q18">
         <v>0.0515</v>
       </c>
       <c r="R18">
-        <v>0.07275680589985517</v>
+        <v>0.0729244837113307</v>
       </c>
       <c r="S18">
-        <v>0.9973810208024128</v>
+        <v>0.9973810004376927</v>
       </c>
       <c r="T18">
-        <v>1.003751683123705</v>
+        <v>1.003751662497999</v>
       </c>
       <c r="U18">
-        <v>2120.986649198853</v>
+        <v>2121.069183132933</v>
       </c>
       <c r="V18" t="s">
         <v>73</v>
@@ -2167,55 +2167,55 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>1.000681846699611</v>
+        <v>1.000681852802551</v>
       </c>
       <c r="D19">
-        <v>330.2524528016518</v>
+        <v>330.2524507875139</v>
       </c>
       <c r="E19">
-        <v>1448.263367505968</v>
+        <v>1448.263367712914</v>
       </c>
       <c r="F19">
-        <v>1118.010914704316</v>
+        <v>1118.010916925401</v>
       </c>
       <c r="G19">
-        <v>152144.0376863155</v>
+        <v>152139.2250725761</v>
       </c>
       <c r="H19">
-        <v>9455.869699528957</v>
+        <v>9456.028274208178</v>
       </c>
       <c r="I19">
-        <v>5421.787225735665</v>
+        <v>5421.459122769232</v>
       </c>
       <c r="J19">
-        <v>106.7657788910945</v>
+        <v>106.7636281424743</v>
       </c>
       <c r="K19">
-        <v>1.141976120734806</v>
+        <v>1.141979167180183</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0.688608224038004</v>
+        <v>0.6885119096218369</v>
       </c>
       <c r="O19">
-        <v>0.9028088617617938</v>
+        <v>0.9027261215944098</v>
       </c>
       <c r="Q19">
         <v>0.0335</v>
       </c>
       <c r="R19">
-        <v>0.5050928817545027</v>
+        <v>0.5051636211789438</v>
       </c>
       <c r="S19">
-        <v>0.9975600581667196</v>
+        <v>0.9975600642316416</v>
       </c>
       <c r="T19">
-        <v>1.003823235370472</v>
+        <v>1.00382324151179</v>
       </c>
       <c r="U19">
-        <v>5528.55300462676</v>
+        <v>5528.222750911706</v>
       </c>
       <c r="V19" t="s">
         <v>74</v>
@@ -2247,55 +2247,55 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>1.000630354602083</v>
+        <v>1.000630374921711</v>
       </c>
       <c r="D20">
-        <v>330.269447480486</v>
+        <v>330.2694407737615</v>
       </c>
       <c r="E20">
-        <v>1448.047774786915</v>
+        <v>1448.047774422983</v>
       </c>
       <c r="F20">
-        <v>1117.778327306429</v>
+        <v>1117.778333649222</v>
       </c>
       <c r="G20">
-        <v>186331.1324141064</v>
+        <v>186331.9194054448</v>
       </c>
       <c r="H20">
-        <v>35578.92229918975</v>
+        <v>35579.16529913127</v>
       </c>
       <c r="I20">
-        <v>561.3529192704272</v>
+        <v>561.36076968027</v>
       </c>
       <c r="J20">
-        <v>267.5891132388171</v>
+        <v>267.599698473585</v>
       </c>
       <c r="K20">
-        <v>1.297538505329206</v>
+        <v>1.297537966325334</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0.08838038300508433</v>
+        <v>0.08839205159122021</v>
       </c>
       <c r="O20">
-        <v>1.208437426935453</v>
+        <v>1.208417566734038</v>
       </c>
       <c r="Q20">
         <v>0.0516</v>
       </c>
       <c r="R20">
-        <v>0.1276724618492919</v>
+        <v>0.127712972274836</v>
       </c>
       <c r="S20">
-        <v>0.9974543931323808</v>
+        <v>0.9974544133232257</v>
       </c>
       <c r="T20">
-        <v>1.00382660562235</v>
+        <v>1.003826626071997</v>
       </c>
       <c r="U20">
-        <v>828.9420325092442</v>
+        <v>828.960468153855</v>
       </c>
       <c r="V20" t="s">
         <v>75</v>
@@ -2327,55 +2327,55 @@
         <v>52</v>
       </c>
       <c r="C21">
-        <v>1.000263336845592</v>
+        <v>1.000263383788661</v>
       </c>
       <c r="D21">
-        <v>330.3906303202311</v>
+        <v>330.3906148147648</v>
       </c>
       <c r="E21">
-        <v>1448.213852462007</v>
+        <v>1448.213848878997</v>
       </c>
       <c r="F21">
-        <v>1117.823222141776</v>
+        <v>1117.823234064233</v>
       </c>
       <c r="G21">
-        <v>186626.5560691941</v>
+        <v>186627.6337370296</v>
       </c>
       <c r="H21">
-        <v>13225.23648791983</v>
+        <v>13224.74906363996</v>
       </c>
       <c r="I21">
-        <v>5373.442606460207</v>
+        <v>5373.149648894418</v>
       </c>
       <c r="J21">
-        <v>108.1050517172658</v>
+        <v>108.0678067003399</v>
       </c>
       <c r="K21">
-        <v>1.141976120731627</v>
+        <v>1.141979167179674</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
-        <v>0.6391975608208146</v>
+        <v>0.6391208466052772</v>
       </c>
       <c r="O21">
-        <v>1.205388517059828</v>
+        <v>1.205481308793426</v>
       </c>
       <c r="Q21">
         <v>0.0507</v>
       </c>
       <c r="R21">
-        <v>0.1882467361784357</v>
+        <v>0.1880473159993193</v>
       </c>
       <c r="S21">
-        <v>0.9970924085639313</v>
+        <v>0.9970924552098444</v>
       </c>
       <c r="T21">
-        <v>1.00345449768358</v>
+        <v>1.003454544926654</v>
       </c>
       <c r="U21">
-        <v>5481.547658177473</v>
+        <v>5481.217455594758</v>
       </c>
       <c r="V21" t="s">
         <v>76</v>
@@ -2407,55 +2407,55 @@
         <v>53</v>
       </c>
       <c r="C22">
-        <v>1.000667951777816</v>
+        <v>1.000668021787366</v>
       </c>
       <c r="D22">
-        <v>330.2570385705833</v>
+        <v>330.2570154648718</v>
       </c>
       <c r="E22">
-        <v>1448.195285522738</v>
+        <v>1448.195285159826</v>
       </c>
       <c r="F22">
-        <v>1117.938246952155</v>
+        <v>1117.938269694955</v>
       </c>
       <c r="G22">
-        <v>186098.3304783519</v>
+        <v>186099.9865985308</v>
       </c>
       <c r="H22">
-        <v>36204.84246384299</v>
+        <v>36203.18176473047</v>
       </c>
       <c r="I22">
-        <v>753.3569647902175</v>
+        <v>753.4456714104759</v>
       </c>
       <c r="J22">
-        <v>379.9003728921907</v>
+        <v>379.8123760767161</v>
       </c>
       <c r="K22">
-        <v>1.282289652241975</v>
+        <v>1.282288680429691</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0.1635666003302838</v>
+        <v>0.1635922813973695</v>
       </c>
       <c r="O22">
-        <v>1.138364448100739</v>
+        <v>1.138490912677256</v>
       </c>
       <c r="Q22">
         <v>0.0432</v>
       </c>
       <c r="R22">
-        <v>0.1866103887500636</v>
+        <v>0.1863666282629068</v>
       </c>
       <c r="S22">
-        <v>0.9975170430679443</v>
+        <v>0.9975171126372956</v>
       </c>
       <c r="T22">
-        <v>1.003838829441487</v>
+        <v>1.003838899895427</v>
       </c>
       <c r="U22">
-        <v>1133.257337682408</v>
+        <v>1133.258047487192</v>
       </c>
       <c r="V22" t="s">
         <v>77</v>
@@ -2487,55 +2487,55 @@
         <v>54</v>
       </c>
       <c r="C23">
-        <v>1.000561853660046</v>
+        <v>1.000562023332825</v>
       </c>
       <c r="D23">
-        <v>330.2920585446552</v>
+        <v>330.2920025345629</v>
       </c>
       <c r="E23">
-        <v>1448.27279664562</v>
+        <v>1448.272796830924</v>
       </c>
       <c r="F23">
-        <v>1117.980738100965</v>
+        <v>1117.980794296361</v>
       </c>
       <c r="G23">
-        <v>186075.4271745826</v>
+        <v>186076.7933157985</v>
       </c>
       <c r="H23">
-        <v>37777.36222079241</v>
+        <v>37778.88790202764</v>
       </c>
       <c r="I23">
-        <v>790.7274125168486</v>
+        <v>790.7865167282965</v>
       </c>
       <c r="J23">
-        <v>416.2360096817728</v>
+        <v>416.1813538616806</v>
       </c>
       <c r="K23">
-        <v>1.288302768975516</v>
+        <v>1.288300389196726</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23">
-        <v>0.1529272825286676</v>
+        <v>0.1529532626933061</v>
       </c>
       <c r="O23">
-        <v>1.041283213736879</v>
+        <v>1.041122959572045</v>
       </c>
       <c r="Q23">
         <v>0.0364</v>
       </c>
       <c r="R23">
-        <v>0.3242205898845738</v>
+        <v>0.3244427515578968</v>
       </c>
       <c r="S23">
-        <v>0.9974320823458404</v>
+        <v>0.9974322509588013</v>
       </c>
       <c r="T23">
-        <v>1.003711328173915</v>
+        <v>1.003711498916534</v>
       </c>
       <c r="U23">
-        <v>1206.963422198621</v>
+        <v>1206.967870589977</v>
       </c>
       <c r="V23" t="s">
         <v>78</v>
@@ -2567,55 +2567,55 @@
         <v>55</v>
       </c>
       <c r="C24">
-        <v>1.000537868769359</v>
+        <v>1.000537927102293</v>
       </c>
       <c r="D24">
-        <v>330.2999763048583</v>
+        <v>330.2999570478507</v>
       </c>
       <c r="E24">
-        <v>1448.11553197557</v>
+        <v>1448.115531665177</v>
       </c>
       <c r="F24">
-        <v>1117.815555670711</v>
+        <v>1117.815574617326</v>
       </c>
       <c r="G24">
-        <v>186380.41800796</v>
+        <v>186381.2051307237</v>
       </c>
       <c r="H24">
-        <v>30474.6429654493</v>
+        <v>30474.35404577445</v>
       </c>
       <c r="I24">
-        <v>410.2689156770557</v>
+        <v>410.2874554441841</v>
       </c>
       <c r="J24">
-        <v>258.727032691152</v>
+        <v>258.7019284998722</v>
       </c>
       <c r="K24">
-        <v>1.259763552364924</v>
+        <v>1.259763196957878</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0.2030752824436207</v>
+        <v>0.2030863546119819</v>
       </c>
       <c r="O24">
-        <v>1.231730265073016</v>
+        <v>1.2317496883307</v>
       </c>
       <c r="Q24">
         <v>0.0514</v>
       </c>
       <c r="R24">
-        <v>0.1611151494010415</v>
+        <v>0.1610662703701753</v>
       </c>
       <c r="S24">
-        <v>0.9973630954306897</v>
+        <v>0.9973631533940216</v>
       </c>
       <c r="T24">
-        <v>1.003732918318336</v>
+        <v>1.003732977024417</v>
       </c>
       <c r="U24">
-        <v>668.9959483682078</v>
+        <v>668.9893839440563</v>
       </c>
       <c r="V24" t="s">
         <v>79</v>
@@ -2647,55 +2647,55 @@
         <v>56</v>
       </c>
       <c r="C25">
-        <v>1.000098416357739</v>
+        <v>1.000098376758571</v>
       </c>
       <c r="D25">
-        <v>330.4451131421647</v>
+        <v>330.4451262262291</v>
       </c>
       <c r="E25">
-        <v>1448.553878932192</v>
+        <v>1448.553878748142</v>
       </c>
       <c r="F25">
-        <v>1118.108765790028</v>
+        <v>1118.108752521913</v>
       </c>
       <c r="G25">
-        <v>201929.371765572</v>
+        <v>201929.4028167817</v>
       </c>
       <c r="H25">
-        <v>50277.475600503</v>
+        <v>50278.44298087546</v>
       </c>
       <c r="I25">
-        <v>2318.612252488089</v>
+        <v>2318.611369834999</v>
       </c>
       <c r="J25">
-        <v>588.8045408808669</v>
+        <v>588.7805714505695</v>
       </c>
       <c r="K25">
-        <v>1.401789994432235</v>
+        <v>1.401790285568223</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1.977161767641178E-10</v>
+        <v>1.039265895563801E-10</v>
       </c>
       <c r="O25">
-        <v>0.9028087665143331</v>
+        <v>0.9027261206633774</v>
       </c>
       <c r="Q25">
-        <v>0.0707</v>
+        <v>0.0703</v>
       </c>
       <c r="R25">
-        <v>0.4261834739609053</v>
+        <v>0.4262674996854379</v>
       </c>
       <c r="S25">
-        <v>0.9968683883109773</v>
+        <v>0.9968695517689479</v>
       </c>
       <c r="T25">
-        <v>1.003349444159744</v>
+        <v>1.003348185813224</v>
       </c>
       <c r="U25">
-        <v>2907.416793368956</v>
+        <v>2907.391941285568</v>
       </c>
       <c r="V25" t="s">
         <v>80</v>

--- a/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
@@ -807,55 +807,55 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1.001156862661844</v>
+        <v>1.001156862686675</v>
       </c>
       <c r="D2">
-        <v>330.0957588883418</v>
+        <v>330.0957588801548</v>
       </c>
       <c r="E2">
-        <v>1447.744338428079</v>
+        <v>1447.744338421631</v>
       </c>
       <c r="F2">
-        <v>1117.648579539737</v>
+        <v>1117.648579541477</v>
       </c>
       <c r="G2">
-        <v>215902.7009288698</v>
+        <v>215902.7063533315</v>
       </c>
       <c r="H2">
-        <v>46564.9046433331</v>
+        <v>46564.90486288338</v>
       </c>
       <c r="I2">
-        <v>2838.931105581772</v>
+        <v>2838.930856420813</v>
       </c>
       <c r="J2">
-        <v>207.4016139884059</v>
+        <v>207.4016431418981</v>
       </c>
       <c r="K2">
-        <v>1.353410252465042</v>
+        <v>1.353410308273159</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="N2">
-        <v>1.485888190266849E-09</v>
+        <v>1.4860370156633E-09</v>
       </c>
       <c r="O2">
-        <v>1.162331196627179</v>
+        <v>1.162331183734142</v>
       </c>
       <c r="Q2">
         <v>0.0539</v>
       </c>
       <c r="R2">
-        <v>0.176134257522376</v>
+        <v>0.1761342875078372</v>
       </c>
       <c r="S2">
-        <v>0.9979706319373389</v>
+        <v>1.000700311934588</v>
       </c>
       <c r="T2">
-        <v>1.004363503972236</v>
+        <v>1.001613830214347</v>
       </c>
       <c r="U2">
-        <v>3046.332719570178</v>
+        <v>3046.332499562711</v>
       </c>
       <c r="V2" t="s">
         <v>57</v>
@@ -887,55 +887,55 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>1.000361813494442</v>
+        <v>1.000361813498088</v>
       </c>
       <c r="D3">
-        <v>330.3581063257659</v>
+        <v>330.3581063245617</v>
       </c>
       <c r="E3">
-        <v>1448.51774904885</v>
+        <v>1448.517749048326</v>
       </c>
       <c r="F3">
-        <v>1118.159642723084</v>
+        <v>1118.159642723764</v>
       </c>
       <c r="G3">
-        <v>213799.9609598223</v>
+        <v>213799.9636485063</v>
       </c>
       <c r="H3">
-        <v>48424.24286869316</v>
+        <v>48424.25939291456</v>
       </c>
       <c r="I3">
-        <v>3050.191976563085</v>
+        <v>3050.191836892714</v>
       </c>
       <c r="J3">
-        <v>553.7731528447774</v>
+        <v>553.7735900542677</v>
       </c>
       <c r="K3">
-        <v>1.48090255494528</v>
+        <v>1.480902597339079</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.123</v>
       </c>
       <c r="N3">
-        <v>1.915784197947801E-11</v>
+        <v>1.852173969751902E-11</v>
       </c>
       <c r="O3">
-        <v>0.9027261206850676</v>
+        <v>0.9027261388302016</v>
       </c>
       <c r="Q3">
-        <v>0.0772</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="R3">
-        <v>0.411162486683227</v>
+        <v>0.4111632472433012</v>
       </c>
       <c r="S3">
-        <v>0.9971105311931019</v>
+        <v>0.9997556499051803</v>
       </c>
       <c r="T3">
-        <v>1.003634368096894</v>
+        <v>1.000968712585147</v>
       </c>
       <c r="U3">
-        <v>3603.965129407862</v>
+        <v>3603.965426946982</v>
       </c>
       <c r="V3" t="s">
         <v>58</v>
@@ -967,55 +967,55 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>1.001203534798631</v>
+        <v>1.001203543382377</v>
       </c>
       <c r="D4">
-        <v>330.0803711336287</v>
+        <v>330.0803683037084</v>
       </c>
       <c r="E4">
-        <v>1448.044888481254</v>
+        <v>1448.044885635041</v>
       </c>
       <c r="F4">
-        <v>1117.964517347625</v>
+        <v>1117.964517331332</v>
       </c>
       <c r="G4">
-        <v>200969.205816166</v>
+        <v>200969.2458278779</v>
       </c>
       <c r="H4">
-        <v>39896.70150131476</v>
+        <v>39896.69775952639</v>
       </c>
       <c r="I4">
-        <v>1674.819918540171</v>
+        <v>1674.778559078925</v>
       </c>
       <c r="J4">
-        <v>426.3044034446668</v>
+        <v>426.3043660926456</v>
       </c>
       <c r="K4">
-        <v>1.427475645258929</v>
+        <v>1.427484916621582</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="N4">
-        <v>4.792209573611927E-09</v>
+        <v>9.609033124746702E-09</v>
       </c>
       <c r="O4">
-        <v>1.128324226668517</v>
+        <v>1.128324366626255</v>
       </c>
       <c r="Q4">
         <v>0.0435</v>
       </c>
       <c r="R4">
-        <v>0.276485214711268</v>
+        <v>0.2764848457030177</v>
       </c>
       <c r="S4">
-        <v>0.9980483533706483</v>
+        <v>1.000881216811143</v>
       </c>
       <c r="T4">
-        <v>1.004378728766902</v>
+        <v>1.001526077626381</v>
       </c>
       <c r="U4">
-        <v>2101.124321984837</v>
+        <v>2101.08292517157</v>
       </c>
       <c r="V4" t="s">
         <v>59</v>
@@ -1047,55 +1047,55 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>1.000463255801072</v>
+        <v>1.000463255777369</v>
       </c>
       <c r="D5">
-        <v>330.3246095550196</v>
+        <v>330.3246095628458</v>
       </c>
       <c r="E5">
-        <v>1448.386875299098</v>
+        <v>1448.386875308901</v>
       </c>
       <c r="F5">
-        <v>1118.062265744079</v>
+        <v>1118.062265746055</v>
       </c>
       <c r="G5">
-        <v>215030.7260549405</v>
+        <v>215030.7284951554</v>
       </c>
       <c r="H5">
-        <v>60122.56928737904</v>
+        <v>60122.5748071362</v>
       </c>
       <c r="I5">
-        <v>3010.880690886481</v>
+        <v>3010.880590751673</v>
       </c>
       <c r="J5">
-        <v>702.6382790976133</v>
+        <v>702.6384201881237</v>
       </c>
       <c r="K5">
-        <v>1.519435113097521</v>
+        <v>1.519435144852225</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.118</v>
       </c>
       <c r="N5">
-        <v>8.906685944332082E-10</v>
+        <v>8.906612669612457E-10</v>
       </c>
       <c r="O5">
-        <v>0.9027261208994443</v>
+        <v>0.9027261390496323</v>
       </c>
       <c r="Q5">
         <v>0.0519</v>
       </c>
       <c r="R5">
-        <v>0.4665655453707216</v>
+        <v>0.466565769070456</v>
       </c>
       <c r="S5">
-        <v>0.9972874504303466</v>
+        <v>0.9999489394960444</v>
       </c>
       <c r="T5">
-        <v>1.003659352131677</v>
+        <v>1.000978101400445</v>
       </c>
       <c r="U5">
-        <v>3713.518969984095</v>
+        <v>3713.519010939797</v>
       </c>
       <c r="V5" t="s">
         <v>60</v>
@@ -1127,55 +1127,55 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>1.001018714221222</v>
+        <v>1.001018714199595</v>
       </c>
       <c r="D6">
-        <v>330.1413146943407</v>
+        <v>330.1413147014737</v>
       </c>
       <c r="E6">
-        <v>1448.136827523939</v>
+        <v>1448.136827525423</v>
       </c>
       <c r="F6">
-        <v>1117.995512829599</v>
+        <v>1117.99551282395</v>
       </c>
       <c r="G6">
-        <v>186271.0370431452</v>
+        <v>186271.0370859129</v>
       </c>
       <c r="H6">
-        <v>24002.35235459549</v>
+        <v>24002.34781785569</v>
       </c>
       <c r="I6">
-        <v>1314.688715120177</v>
+        <v>1314.688714041644</v>
       </c>
       <c r="J6">
-        <v>258.3647629723327</v>
+        <v>258.3645862895871</v>
       </c>
       <c r="K6">
-        <v>1.141979167200063</v>
+        <v>1.141979167462437</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.0501</v>
       </c>
       <c r="N6">
-        <v>0.4531543931906853</v>
+        <v>0.4531543951869683</v>
       </c>
       <c r="O6">
-        <v>1.075488560242321</v>
+        <v>1.075489068267882</v>
       </c>
       <c r="Q6">
         <v>0.0385</v>
       </c>
       <c r="R6">
-        <v>0.4146439925578138</v>
+        <v>0.4146431262716482</v>
       </c>
       <c r="S6">
-        <v>0.9978797610344818</v>
+        <v>1.000750142958378</v>
       </c>
       <c r="T6">
-        <v>1.004177477648039</v>
+        <v>1.001287429632395</v>
       </c>
       <c r="U6">
-        <v>1573.05347809251</v>
+        <v>1573.053300331231</v>
       </c>
       <c r="V6" t="s">
         <v>61</v>
@@ -1207,55 +1207,55 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>1.000416166787789</v>
+        <v>1.00041616701041</v>
       </c>
       <c r="D7">
-        <v>330.3401577443067</v>
+        <v>330.3401576707965</v>
       </c>
       <c r="E7">
-        <v>1448.321952735371</v>
+        <v>1448.321952666135</v>
       </c>
       <c r="F7">
-        <v>1117.981794991064</v>
+        <v>1117.981794995339</v>
       </c>
       <c r="G7">
-        <v>220569.35749501</v>
+        <v>220569.3538159321</v>
       </c>
       <c r="H7">
-        <v>55930.85218171887</v>
+        <v>55930.85232523726</v>
       </c>
       <c r="I7">
-        <v>3180.623084596167</v>
+        <v>3180.623190413022</v>
       </c>
       <c r="J7">
-        <v>610.0843760544406</v>
+        <v>610.084370817436</v>
       </c>
       <c r="K7">
-        <v>1.552059543639453</v>
+        <v>1.552059506220811</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.123</v>
       </c>
       <c r="N7">
-        <v>2.210014393710935E-10</v>
+        <v>2.194725512438822E-10</v>
       </c>
       <c r="O7">
-        <v>1.093966515980028</v>
+        <v>1.093966507950459</v>
       </c>
       <c r="Q7">
         <v>0.0412</v>
       </c>
       <c r="R7">
-        <v>0.2568146536385955</v>
+        <v>0.2568146645005008</v>
       </c>
       <c r="S7">
-        <v>0.9972728598741181</v>
+        <v>0.9999191438069017</v>
       </c>
       <c r="T7">
-        <v>1.003579351147662</v>
+        <v>1.000913684563723</v>
       </c>
       <c r="U7">
-        <v>3790.707460650608</v>
+        <v>3790.707561230458</v>
       </c>
       <c r="V7" t="s">
         <v>62</v>
@@ -1287,55 +1287,55 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>1.000438239106007</v>
+        <v>1.000438239082287</v>
       </c>
       <c r="D8">
-        <v>330.3328695651899</v>
+        <v>330.332869573022</v>
       </c>
       <c r="E8">
-        <v>1448.280386527096</v>
+        <v>1448.280386519248</v>
       </c>
       <c r="F8">
-        <v>1117.947516961906</v>
+        <v>1117.947516946226</v>
       </c>
       <c r="G8">
-        <v>194207.0685325385</v>
+        <v>194207.0712909518</v>
       </c>
       <c r="H8">
-        <v>38833.8509434377</v>
+        <v>38833.85284872806</v>
       </c>
       <c r="I8">
-        <v>1145.338090774124</v>
+        <v>1145.337883325554</v>
       </c>
       <c r="J8">
-        <v>421.7608218178106</v>
+        <v>421.7609188053179</v>
       </c>
       <c r="K8">
-        <v>1.416068662724578</v>
+        <v>1.416068707119019</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.0426</v>
       </c>
       <c r="N8">
-        <v>3.33066907387547E-15</v>
+        <v>1.942890293094024E-15</v>
       </c>
       <c r="O8">
-        <v>1.163611001704287</v>
+        <v>1.163610843400291</v>
       </c>
       <c r="Q8">
         <v>0.0438</v>
       </c>
       <c r="R8">
-        <v>0.2479657983611165</v>
+        <v>0.2479660788814572</v>
       </c>
       <c r="S8">
-        <v>0.9972869688752181</v>
+        <v>1.000176638528638</v>
       </c>
       <c r="T8">
-        <v>1.003609487502918</v>
+        <v>1.000699976517265</v>
       </c>
       <c r="U8">
-        <v>1567.098912591935</v>
+        <v>1567.098802130872</v>
       </c>
       <c r="V8" t="s">
         <v>63</v>
@@ -1367,55 +1367,55 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>1.00024648209389</v>
+        <v>1.000246482117391</v>
       </c>
       <c r="D9">
-        <v>330.3961976000351</v>
+        <v>330.3961975922723</v>
       </c>
       <c r="E9">
-        <v>1448.539554282233</v>
+        <v>1448.53955427802</v>
       </c>
       <c r="F9">
-        <v>1118.143356682198</v>
+        <v>1118.143356685748</v>
       </c>
       <c r="G9">
-        <v>186360.9110065502</v>
+        <v>186360.9110493576</v>
       </c>
       <c r="H9">
-        <v>38526.15320144006</v>
+        <v>38526.15401897299</v>
       </c>
       <c r="I9">
-        <v>828.9340383794042</v>
+        <v>828.9340760286397</v>
       </c>
       <c r="J9">
-        <v>468.0145413567935</v>
+        <v>468.0145736862395</v>
       </c>
       <c r="K9">
-        <v>1.252845522224083</v>
+        <v>1.252845532945373</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.0483</v>
       </c>
       <c r="N9">
-        <v>0.1398524157712187</v>
+        <v>0.1398523776759204</v>
       </c>
       <c r="O9">
-        <v>0.9027261219529328</v>
+        <v>0.9027261400052951</v>
       </c>
       <c r="Q9">
         <v>0.07580000000000001</v>
       </c>
       <c r="R9">
-        <v>0.4504061814775351</v>
+        <v>0.4504062276145017</v>
       </c>
       <c r="S9">
-        <v>0.9970001591066461</v>
+        <v>0.999870920951148</v>
       </c>
       <c r="T9">
-        <v>1.003514014786304</v>
+        <v>1.000622325518441</v>
       </c>
       <c r="U9">
-        <v>1296.948579736198</v>
+        <v>1296.948649714879</v>
       </c>
       <c r="V9" t="s">
         <v>64</v>
@@ -1447,55 +1447,55 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>1.000147305927082</v>
+        <v>1.000147305945619</v>
       </c>
       <c r="D10">
-        <v>330.4289602023155</v>
+        <v>330.4289601961912</v>
       </c>
       <c r="E10">
-        <v>1448.664947542881</v>
+        <v>1448.664947542898</v>
       </c>
       <c r="F10">
-        <v>1118.235987340566</v>
+        <v>1118.235987346707</v>
       </c>
       <c r="G10">
-        <v>186387.0034523646</v>
+        <v>186387.003495457</v>
       </c>
       <c r="H10">
-        <v>33046.55718231014</v>
+        <v>33046.55639200337</v>
       </c>
       <c r="I10">
-        <v>1105.609598676268</v>
+        <v>1105.609592455505</v>
       </c>
       <c r="J10">
-        <v>423.7891519862713</v>
+        <v>423.7891398537781</v>
       </c>
       <c r="K10">
-        <v>1.141979169116186</v>
+        <v>1.141979169388337</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.0547</v>
       </c>
       <c r="N10">
-        <v>0.2518075144887891</v>
+        <v>0.251807518047264</v>
       </c>
       <c r="O10">
-        <v>0.9027261206935806</v>
+        <v>0.9027261388435424</v>
       </c>
       <c r="Q10">
         <v>0.0815</v>
       </c>
       <c r="R10">
-        <v>0.3611504323540247</v>
+        <v>0.3611503616556817</v>
       </c>
       <c r="S10">
-        <v>0.9968844848664735</v>
+        <v>0.9997352236106604</v>
       </c>
       <c r="T10">
-        <v>1.003431555669575</v>
+        <v>1.000559728134313</v>
       </c>
       <c r="U10">
-        <v>1529.398750662539</v>
+        <v>1529.398732309284</v>
       </c>
       <c r="V10" t="s">
         <v>65</v>
@@ -1527,55 +1527,46 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>1.000270190366446</v>
+        <v>1.000270190506009</v>
       </c>
       <c r="D11">
-        <v>330.3883665927935</v>
+        <v>330.3883665466963</v>
       </c>
       <c r="E11">
-        <v>1448.599158244529</v>
+        <v>1448.599158244362</v>
       </c>
       <c r="F11">
-        <v>1118.210791651736</v>
+        <v>1118.210791697665</v>
       </c>
       <c r="G11">
-        <v>186450.7849793156</v>
+        <v>186450.7850221031</v>
       </c>
       <c r="H11">
-        <v>30951.41914779498</v>
+        <v>30951.40903091468</v>
       </c>
       <c r="I11">
-        <v>1429.250193826431</v>
+        <v>1429.250186569565</v>
       </c>
       <c r="J11">
-        <v>394.7254015058338</v>
+        <v>394.7250319657187</v>
       </c>
       <c r="K11">
-        <v>1.141979167392954</v>
+        <v>1.141979167654315</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.0601</v>
       </c>
       <c r="N11">
-        <v>0.3278108641366846</v>
+        <v>0.3278108681134252</v>
       </c>
       <c r="O11">
-        <v>0.9027261206631648</v>
-      </c>
-      <c r="Q11">
-        <v>0.0842</v>
+        <v>0.9027261388131658</v>
       </c>
       <c r="R11">
-        <v>0.4177024994537846</v>
-      </c>
-      <c r="S11">
-        <v>0.9969984476954228</v>
-      </c>
-      <c r="T11">
-        <v>1.003563476787982</v>
+        <v>0.4177017271165545</v>
       </c>
       <c r="U11">
-        <v>1823.975595332265</v>
+        <v>1823.975218535284</v>
       </c>
       <c r="V11" t="s">
         <v>66</v>
@@ -1607,55 +1598,55 @@
         <v>43</v>
       </c>
       <c r="C12">
-        <v>1.000301696346043</v>
+        <v>1.00030169634916</v>
       </c>
       <c r="D12">
-        <v>330.3779605231298</v>
+        <v>330.3779605221002</v>
       </c>
       <c r="E12">
-        <v>1448.490883371716</v>
+        <v>1448.490883375149</v>
       </c>
       <c r="F12">
-        <v>1118.112922848587</v>
+        <v>1118.112922853049</v>
       </c>
       <c r="G12">
-        <v>186540.6589344398</v>
+        <v>186540.65897731</v>
       </c>
       <c r="H12">
-        <v>27273.75752056472</v>
+        <v>27273.7582690038</v>
       </c>
       <c r="I12">
-        <v>1662.100498347156</v>
+        <v>1662.100545722574</v>
       </c>
       <c r="J12">
-        <v>328.5295446550987</v>
+        <v>328.5295625388171</v>
       </c>
       <c r="K12">
-        <v>1.141979167272578</v>
+        <v>1.141979167536175</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0.0668</v>
       </c>
       <c r="N12">
-        <v>0.4217492032346443</v>
+        <v>0.421749186980255</v>
       </c>
       <c r="O12">
-        <v>0.9027261208949983</v>
+        <v>0.9027261390646698</v>
       </c>
       <c r="Q12">
         <v>0.07149999999999999</v>
       </c>
       <c r="R12">
-        <v>0.5131536500483289</v>
+        <v>0.5131536999122317</v>
       </c>
       <c r="S12">
-        <v>0.9970679506463426</v>
+        <v>0.9998831338119145</v>
       </c>
       <c r="T12">
-        <v>1.003556486021084</v>
+        <v>1.000720609463311</v>
       </c>
       <c r="U12">
-        <v>1990.630043002255</v>
+        <v>1990.630108261391</v>
       </c>
       <c r="V12" t="s">
         <v>67</v>
@@ -1687,55 +1678,55 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <v>1.000311914702563</v>
+        <v>1.000311914704606</v>
       </c>
       <c r="D13">
-        <v>330.3745856560136</v>
+        <v>330.3745856553387</v>
       </c>
       <c r="E13">
-        <v>1448.481722009104</v>
+        <v>1448.481722002183</v>
       </c>
       <c r="F13">
-        <v>1118.107136353091</v>
+        <v>1118.107136346845</v>
       </c>
       <c r="G13">
-        <v>186569.6505394095</v>
+        <v>186569.6505802802</v>
       </c>
       <c r="H13">
-        <v>25867.15529077611</v>
+        <v>25867.15558655941</v>
       </c>
       <c r="I13">
-        <v>1317.132087621014</v>
+        <v>1317.132254412622</v>
       </c>
       <c r="J13">
-        <v>290.4045058866883</v>
+        <v>290.4045264903806</v>
       </c>
       <c r="K13">
-        <v>1.141979167181807</v>
+        <v>1.1419791674438</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0.0551</v>
       </c>
       <c r="N13">
-        <v>0.4207614221269546</v>
+        <v>0.4207613632438872</v>
       </c>
       <c r="O13">
-        <v>0.9027261502758491</v>
+        <v>0.9027261678033187</v>
       </c>
       <c r="Q13">
-        <v>0.0721</v>
+        <v>0.0722</v>
       </c>
       <c r="R13">
-        <v>0.5655134927696559</v>
+        <v>0.5655134876580054</v>
       </c>
       <c r="S13">
-        <v>0.9970762980855795</v>
+        <v>0.9999266227826269</v>
       </c>
       <c r="T13">
-        <v>1.003568599515058</v>
+        <v>1.000697503662557</v>
       </c>
       <c r="U13">
-        <v>1607.536593507702</v>
+        <v>1607.536780903003</v>
       </c>
       <c r="V13" t="s">
         <v>68</v>
@@ -1767,55 +1758,55 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>1.000362202375852</v>
+        <v>1.00036220236927</v>
       </c>
       <c r="D14">
-        <v>330.357977902155</v>
+        <v>330.3579779043287</v>
       </c>
       <c r="E14">
-        <v>1448.452336783721</v>
+        <v>1448.452336788121</v>
       </c>
       <c r="F14">
-        <v>1118.094358881566</v>
+        <v>1118.094358883792</v>
       </c>
       <c r="G14">
-        <v>186355.1127000043</v>
+        <v>186355.1127367161</v>
       </c>
       <c r="H14">
-        <v>32616.5270377246</v>
+        <v>32616.52663691467</v>
       </c>
       <c r="I14">
-        <v>1013.89637622947</v>
+        <v>1013.896497104844</v>
       </c>
       <c r="J14">
-        <v>363.0311670146453</v>
+        <v>363.0311617399789</v>
       </c>
       <c r="K14">
-        <v>1.33855085069186</v>
+        <v>1.338550823995842</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.0422</v>
       </c>
       <c r="N14">
-        <v>0.01408050141126937</v>
+        <v>0.01408058457090111</v>
       </c>
       <c r="O14">
-        <v>0.9027261241604353</v>
+        <v>0.9027261423064551</v>
       </c>
       <c r="Q14">
         <v>0.0727</v>
       </c>
       <c r="R14">
-        <v>0.6199512808543294</v>
+        <v>0.6199512472726596</v>
       </c>
       <c r="S14">
-        <v>0.9971244558242027</v>
+        <v>1.00001439283712</v>
       </c>
       <c r="T14">
-        <v>1.003621043892622</v>
+        <v>1.000710253925056</v>
       </c>
       <c r="U14">
-        <v>1376.927543244116</v>
+        <v>1376.927658844823</v>
       </c>
       <c r="V14" t="s">
         <v>69</v>
@@ -1847,55 +1838,55 @@
         <v>46</v>
       </c>
       <c r="C15">
-        <v>1.00036934254286</v>
+        <v>1.00036934255411</v>
       </c>
       <c r="D15">
-        <v>330.3556199619079</v>
+        <v>330.3556199581928</v>
       </c>
       <c r="E15">
-        <v>1448.455617604829</v>
+        <v>1448.455617604647</v>
       </c>
       <c r="F15">
-        <v>1118.099997642921</v>
+        <v>1118.099997646454</v>
       </c>
       <c r="G15">
-        <v>186430.4908492587</v>
+        <v>186430.4908920626</v>
       </c>
       <c r="H15">
-        <v>29027.30056266392</v>
+        <v>29027.30126877719</v>
       </c>
       <c r="I15">
-        <v>656.2867677972048</v>
+        <v>656.2867711664837</v>
       </c>
       <c r="J15">
-        <v>327.8017567846139</v>
+        <v>327.8017744931564</v>
       </c>
       <c r="K15">
-        <v>1.259297822883219</v>
+        <v>1.259297822713707</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.0363</v>
       </c>
       <c r="N15">
-        <v>0.1867712290852031</v>
+        <v>0.1867712293404011</v>
       </c>
       <c r="O15">
-        <v>0.9027261207291524</v>
+        <v>0.9027261388699297</v>
       </c>
       <c r="Q15">
         <v>0.07240000000000001</v>
       </c>
       <c r="R15">
-        <v>0.6027207671158803</v>
+        <v>0.6027208093626665</v>
       </c>
       <c r="S15">
-        <v>0.9971324524239552</v>
+        <v>1.000040289942471</v>
       </c>
       <c r="T15">
-        <v>1.003627316280687</v>
+        <v>1.000698611779541</v>
       </c>
       <c r="U15">
-        <v>984.0885245818188</v>
+        <v>984.0885456596401</v>
       </c>
       <c r="V15" t="s">
         <v>70</v>
@@ -1927,55 +1918,55 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>1.000371021664416</v>
+        <v>1.000371021738635</v>
       </c>
       <c r="D16">
-        <v>330.3550654603973</v>
+        <v>330.355065435888</v>
       </c>
       <c r="E16">
-        <v>1448.225767632338</v>
+        <v>1448.225767607844</v>
       </c>
       <c r="F16">
-        <v>1117.87070217194</v>
+        <v>1117.870702171956</v>
       </c>
       <c r="G16">
-        <v>182383.2633362079</v>
+        <v>182383.2633780849</v>
       </c>
       <c r="H16">
-        <v>11320.38458994558</v>
+        <v>11320.38394366622</v>
       </c>
       <c r="I16">
-        <v>5790.470891502586</v>
+        <v>5790.471104345149</v>
       </c>
       <c r="J16">
-        <v>98.63445843819724</v>
+        <v>98.63443805366033</v>
       </c>
       <c r="K16">
-        <v>1.141979167183938</v>
+        <v>1.141979167446091</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.296</v>
       </c>
       <c r="N16">
-        <v>0.6629511109506141</v>
+        <v>0.6629511549204886</v>
       </c>
       <c r="O16">
-        <v>1.199585416023738</v>
+        <v>1.199585496130716</v>
       </c>
       <c r="Q16">
         <v>0.0468</v>
       </c>
       <c r="R16">
-        <v>0.1911858959757372</v>
+        <v>0.1911856595153736</v>
       </c>
       <c r="S16">
-        <v>0.9972111469183175</v>
+        <v>0.9993340413946579</v>
       </c>
       <c r="T16">
-        <v>1.003550985532054</v>
+        <v>1.001410156407763</v>
       </c>
       <c r="U16">
-        <v>5889.105349940783</v>
+        <v>5889.105542398809</v>
       </c>
       <c r="V16" t="s">
         <v>71</v>
@@ -2007,55 +1998,55 @@
         <v>48</v>
       </c>
       <c r="C17">
-        <v>1.000535458314477</v>
+        <v>1.000535458332032</v>
       </c>
       <c r="D17">
-        <v>330.3007720519595</v>
+        <v>330.3007720461642</v>
       </c>
       <c r="E17">
-        <v>1448.417168715479</v>
+        <v>1448.417168715858</v>
       </c>
       <c r="F17">
-        <v>1118.116396663519</v>
+        <v>1118.116396669694</v>
       </c>
       <c r="G17">
-        <v>186413.0958886306</v>
+        <v>186413.09593143</v>
       </c>
       <c r="H17">
-        <v>30486.38123383373</v>
+        <v>30486.38175421131</v>
       </c>
       <c r="I17">
-        <v>2156.754655965494</v>
+        <v>2156.7546652389</v>
       </c>
       <c r="J17">
-        <v>381.4914027986494</v>
+        <v>381.4914216414805</v>
       </c>
       <c r="K17">
-        <v>1.141979167182616</v>
+        <v>1.141979167444843</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.0867</v>
       </c>
       <c r="N17">
-        <v>0.4622756405401924</v>
+        <v>0.4622756384666743</v>
       </c>
       <c r="O17">
-        <v>0.902726130905902</v>
+        <v>0.9027261490307966</v>
       </c>
       <c r="Q17">
         <v>0.0746</v>
       </c>
       <c r="R17">
-        <v>0.435001925425629</v>
+        <v>0.4350019711907531</v>
       </c>
       <c r="S17">
-        <v>0.9972908737913516</v>
+        <v>1.000047092546422</v>
       </c>
       <c r="T17">
-        <v>1.003801223599185</v>
+        <v>1.001024301330504</v>
       </c>
       <c r="U17">
-        <v>2538.246058764143</v>
+        <v>2538.24608688038</v>
       </c>
       <c r="V17" t="s">
         <v>72</v>
@@ -2087,55 +2078,55 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>1.00055619087701</v>
+        <v>1.000556190874924</v>
       </c>
       <c r="D18">
-        <v>330.2939278772158</v>
+        <v>330.2939278779045</v>
       </c>
       <c r="E18">
-        <v>1448.113652871835</v>
+        <v>1448.113652877449</v>
       </c>
       <c r="F18">
-        <v>1117.81972499462</v>
+        <v>1117.819724999545</v>
       </c>
       <c r="G18">
-        <v>200344.0491382822</v>
+        <v>200344.0520801816</v>
       </c>
       <c r="H18">
-        <v>50303.17365272983</v>
+        <v>50303.17424460821</v>
       </c>
       <c r="I18">
-        <v>1714.594770248772</v>
+        <v>1714.594604445124</v>
       </c>
       <c r="J18">
-        <v>406.4744128841609</v>
+        <v>406.474405060326</v>
       </c>
       <c r="K18">
-        <v>1.439798314273101</v>
+        <v>1.43979835641463</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0.0625</v>
       </c>
       <c r="N18">
-        <v>1.054711873393899E-15</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="O18">
-        <v>1.200422405709341</v>
+        <v>1.200422403231633</v>
       </c>
       <c r="Q18">
         <v>0.0515</v>
       </c>
       <c r="R18">
-        <v>0.0729244837113307</v>
+        <v>0.07292451697210411</v>
       </c>
       <c r="S18">
-        <v>0.9973810004376927</v>
+        <v>1.000210970932738</v>
       </c>
       <c r="T18">
-        <v>1.003751662497999</v>
+        <v>1.000901649202729</v>
       </c>
       <c r="U18">
-        <v>2121.069183132933</v>
+        <v>2121.06900950545</v>
       </c>
       <c r="V18" t="s">
         <v>73</v>
@@ -2167,55 +2158,55 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>1.000681852802551</v>
+        <v>1.000681852581197</v>
       </c>
       <c r="D19">
-        <v>330.2524507875139</v>
+        <v>330.2524508605668</v>
       </c>
       <c r="E19">
-        <v>1448.263367712914</v>
+        <v>1448.263367787069</v>
       </c>
       <c r="F19">
-        <v>1118.010916925401</v>
+        <v>1118.010916926503</v>
       </c>
       <c r="G19">
-        <v>152139.2250725761</v>
+        <v>152139.2251075071</v>
       </c>
       <c r="H19">
-        <v>9456.028274208178</v>
+        <v>9456.024033668889</v>
       </c>
       <c r="I19">
-        <v>5421.459122769232</v>
+        <v>5421.458247092383</v>
       </c>
       <c r="J19">
-        <v>106.7636281424743</v>
+        <v>106.763529144387</v>
       </c>
       <c r="K19">
-        <v>1.141979167180183</v>
+        <v>1.141979167442376</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="N19">
-        <v>0.6885119096218369</v>
+        <v>0.6885116670249152</v>
       </c>
       <c r="O19">
-        <v>0.9027261215944098</v>
+        <v>0.9027261396975661</v>
       </c>
       <c r="Q19">
         <v>0.0335</v>
       </c>
       <c r="R19">
-        <v>0.5051636211789438</v>
+        <v>0.5051625107155401</v>
       </c>
       <c r="S19">
-        <v>0.9975600642316416</v>
+        <v>0.9995514069190642</v>
       </c>
       <c r="T19">
-        <v>1.00382324151179</v>
+        <v>1.001814858100234</v>
       </c>
       <c r="U19">
-        <v>5528.222750911706</v>
+        <v>5528.22177623677</v>
       </c>
       <c r="V19" t="s">
         <v>74</v>
@@ -2247,55 +2238,46 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>1.000630374921711</v>
+        <v>1.000630374936423</v>
       </c>
       <c r="D20">
-        <v>330.2694407737615</v>
+        <v>330.2694407689057</v>
       </c>
       <c r="E20">
-        <v>1448.047774422983</v>
+        <v>1448.047774423588</v>
       </c>
       <c r="F20">
-        <v>1117.778333649222</v>
+        <v>1117.778333654682</v>
       </c>
       <c r="G20">
-        <v>186331.9194054448</v>
+        <v>186331.9194482264</v>
       </c>
       <c r="H20">
-        <v>35579.16529913127</v>
+        <v>35579.16565682116</v>
       </c>
       <c r="I20">
-        <v>561.36076968027</v>
+        <v>561.3607433435405</v>
       </c>
       <c r="J20">
-        <v>267.599698473585</v>
+        <v>267.5996978979044</v>
       </c>
       <c r="K20">
-        <v>1.297537966325334</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
+        <v>1.297537970494297</v>
       </c>
       <c r="N20">
-        <v>0.08839205159122021</v>
+        <v>0.08839204760862956</v>
       </c>
       <c r="O20">
-        <v>1.208417566734038</v>
+        <v>1.208417558714716</v>
       </c>
       <c r="Q20">
         <v>0.0516</v>
       </c>
       <c r="R20">
-        <v>0.127712972274836</v>
-      </c>
-      <c r="S20">
-        <v>0.9974544133232257</v>
-      </c>
-      <c r="T20">
-        <v>1.003826626071997</v>
+        <v>0.1277130124282202</v>
       </c>
       <c r="U20">
-        <v>828.960468153855</v>
+        <v>828.9604412414449</v>
       </c>
       <c r="V20" t="s">
         <v>75</v>
@@ -2327,55 +2309,55 @@
         <v>52</v>
       </c>
       <c r="C21">
-        <v>1.000263383788661</v>
+        <v>1.000263383791196</v>
       </c>
       <c r="D21">
-        <v>330.3906148147648</v>
+        <v>330.3906148139276</v>
       </c>
       <c r="E21">
-        <v>1448.213848878997</v>
+        <v>1448.213848872356</v>
       </c>
       <c r="F21">
-        <v>1117.823234064233</v>
+        <v>1117.823234058429</v>
       </c>
       <c r="G21">
-        <v>186627.6337370296</v>
+        <v>186627.6337798873</v>
       </c>
       <c r="H21">
-        <v>13224.74906363996</v>
+        <v>13224.74888721644</v>
       </c>
       <c r="I21">
-        <v>5373.149648894418</v>
+        <v>5373.149605047305</v>
       </c>
       <c r="J21">
-        <v>108.0678067003399</v>
+        <v>108.0678044056355</v>
       </c>
       <c r="K21">
-        <v>1.141979167179674</v>
+        <v>1.141979167441874</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.262</v>
       </c>
       <c r="N21">
-        <v>0.6391208466052772</v>
+        <v>0.6391208342495018</v>
       </c>
       <c r="O21">
-        <v>1.205481308793426</v>
+        <v>1.205481319453178</v>
       </c>
       <c r="Q21">
         <v>0.0507</v>
       </c>
       <c r="R21">
-        <v>0.1880473159993193</v>
+        <v>0.1880472678343537</v>
       </c>
       <c r="S21">
-        <v>0.9970924552098444</v>
+        <v>0.9993175742208035</v>
       </c>
       <c r="T21">
-        <v>1.003454544926654</v>
+        <v>1.00121098539092</v>
       </c>
       <c r="U21">
-        <v>5481.217455594758</v>
+        <v>5481.217409452941</v>
       </c>
       <c r="V21" t="s">
         <v>76</v>
@@ -2407,55 +2389,55 @@
         <v>53</v>
       </c>
       <c r="C22">
-        <v>1.000668021787366</v>
+        <v>1.000668021784316</v>
       </c>
       <c r="D22">
-        <v>330.2570154648718</v>
+        <v>330.2570154658786</v>
       </c>
       <c r="E22">
-        <v>1448.195285159826</v>
+        <v>1448.195285160139</v>
       </c>
       <c r="F22">
-        <v>1117.938269694955</v>
+        <v>1117.93826969426</v>
       </c>
       <c r="G22">
-        <v>186099.9865985308</v>
+        <v>186099.9866412664</v>
       </c>
       <c r="H22">
-        <v>36203.18176473047</v>
+        <v>36203.18186677825</v>
       </c>
       <c r="I22">
-        <v>753.4456714104759</v>
+        <v>753.44568551021</v>
       </c>
       <c r="J22">
-        <v>379.8123760767161</v>
+        <v>379.8123793709409</v>
       </c>
       <c r="K22">
-        <v>1.282288680429691</v>
+        <v>1.282288679812565</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0.0364</v>
       </c>
       <c r="N22">
-        <v>0.1635922813973695</v>
+        <v>0.163592278331949</v>
       </c>
       <c r="O22">
-        <v>1.138490912677256</v>
+        <v>1.138490907794827</v>
       </c>
       <c r="Q22">
         <v>0.0432</v>
       </c>
       <c r="R22">
-        <v>0.1863666282629068</v>
+        <v>0.1863666397371903</v>
       </c>
       <c r="S22">
-        <v>0.9975171126372956</v>
+        <v>1.000426894489294</v>
       </c>
       <c r="T22">
-        <v>1.003838899895427</v>
+        <v>1.000909265342485</v>
       </c>
       <c r="U22">
-        <v>1133.258047487192</v>
+        <v>1133.258064881151</v>
       </c>
       <c r="V22" t="s">
         <v>77</v>
@@ -2487,55 +2469,55 @@
         <v>54</v>
       </c>
       <c r="C23">
-        <v>1.000562023332825</v>
+        <v>1.00056202348159</v>
       </c>
       <c r="D23">
-        <v>330.2920025345629</v>
+        <v>330.2920024854548</v>
       </c>
       <c r="E23">
-        <v>1448.272796830924</v>
+        <v>1448.272796779049</v>
       </c>
       <c r="F23">
-        <v>1117.980794296361</v>
+        <v>1117.980794293594</v>
       </c>
       <c r="G23">
-        <v>186076.7933157985</v>
+        <v>186076.7933585217</v>
       </c>
       <c r="H23">
-        <v>37778.88790202764</v>
+        <v>37778.88738363726</v>
       </c>
       <c r="I23">
-        <v>790.7865167282965</v>
+        <v>790.7865042224336</v>
       </c>
       <c r="J23">
-        <v>416.1813538616806</v>
+        <v>416.181344415356</v>
       </c>
       <c r="K23">
-        <v>1.288300389196726</v>
+        <v>1.288300385720027</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.0397</v>
       </c>
       <c r="N23">
-        <v>0.1529532626933061</v>
+        <v>0.1529532680360335</v>
       </c>
       <c r="O23">
-        <v>1.041122959572045</v>
+        <v>1.041122973626315</v>
       </c>
       <c r="Q23">
         <v>0.0364</v>
       </c>
       <c r="R23">
-        <v>0.3244427515578968</v>
+        <v>0.3244427057669688</v>
       </c>
       <c r="S23">
-        <v>0.9974322509588013</v>
+        <v>1.000331544905074</v>
       </c>
       <c r="T23">
-        <v>1.003711498916534</v>
+        <v>1.000792608288117</v>
       </c>
       <c r="U23">
-        <v>1206.967870589977</v>
+        <v>1206.96784863779</v>
       </c>
       <c r="V23" t="s">
         <v>78</v>
@@ -2567,55 +2549,55 @@
         <v>55</v>
       </c>
       <c r="C24">
-        <v>1.000537927102293</v>
+        <v>1.000537927145901</v>
       </c>
       <c r="D24">
-        <v>330.2999570478507</v>
+        <v>330.2999570334548</v>
       </c>
       <c r="E24">
-        <v>1448.115531665177</v>
+        <v>1448.115531664991</v>
       </c>
       <c r="F24">
-        <v>1117.815574617326</v>
+        <v>1117.815574631536</v>
       </c>
       <c r="G24">
-        <v>186381.2051307237</v>
+        <v>186381.2051735741</v>
       </c>
       <c r="H24">
-        <v>30474.35404577445</v>
+        <v>30474.35511942523</v>
       </c>
       <c r="I24">
-        <v>410.2874554441841</v>
+        <v>410.2874630550331</v>
       </c>
       <c r="J24">
-        <v>258.7019284998722</v>
+        <v>258.7019338771614</v>
       </c>
       <c r="K24">
-        <v>1.259763196957878</v>
+        <v>1.259763196385204</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0.019</v>
       </c>
       <c r="N24">
-        <v>0.2030863546119819</v>
+        <v>0.2030863540825715</v>
       </c>
       <c r="O24">
-        <v>1.2317496883307</v>
+        <v>1.231749651244549</v>
       </c>
       <c r="Q24">
         <v>0.0514</v>
       </c>
       <c r="R24">
-        <v>0.1610662703701753</v>
+        <v>0.1610664062559768</v>
       </c>
       <c r="S24">
-        <v>0.9973631533940216</v>
+        <v>1.000324718337751</v>
       </c>
       <c r="T24">
-        <v>1.003732977024417</v>
+        <v>1.000751226859905</v>
       </c>
       <c r="U24">
-        <v>668.9893839440563</v>
+        <v>668.9893969321945</v>
       </c>
       <c r="V24" t="s">
         <v>79</v>
@@ -2647,55 +2629,55 @@
         <v>56</v>
       </c>
       <c r="C25">
-        <v>1.000098376758571</v>
+        <v>1.000098376761551</v>
       </c>
       <c r="D25">
-        <v>330.4451262262291</v>
+        <v>330.4451262252444</v>
       </c>
       <c r="E25">
-        <v>1448.553878748142</v>
+        <v>1448.553878750398</v>
       </c>
       <c r="F25">
-        <v>1118.108752521913</v>
+        <v>1118.108752525153</v>
       </c>
       <c r="G25">
-        <v>201929.4028167817</v>
+        <v>201929.4074392629</v>
       </c>
       <c r="H25">
-        <v>50278.44298087546</v>
+        <v>50278.44270802592</v>
       </c>
       <c r="I25">
-        <v>2318.611369834999</v>
+        <v>2318.611117523631</v>
       </c>
       <c r="J25">
-        <v>588.7805714505695</v>
+        <v>588.780574643259</v>
       </c>
       <c r="K25">
-        <v>1.401790285568223</v>
+        <v>1.401790346906763</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0.096</v>
       </c>
       <c r="N25">
-        <v>1.039265895563801E-10</v>
+        <v>1.046821518357888E-10</v>
       </c>
       <c r="O25">
-        <v>0.9027261206633774</v>
+        <v>0.902726138813387</v>
       </c>
       <c r="Q25">
-        <v>0.0703</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="R25">
-        <v>0.4262674996854379</v>
+        <v>0.4262674795877546</v>
       </c>
       <c r="S25">
-        <v>0.9968695517689479</v>
+        <v>0.9995904823226196</v>
       </c>
       <c r="T25">
-        <v>1.003348185813224</v>
+        <v>1.000606787587745</v>
       </c>
       <c r="U25">
-        <v>2907.391941285568</v>
+        <v>2907.39169216689</v>
       </c>
       <c r="V25" t="s">
         <v>80</v>

--- a/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>filename_x</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Ne_Corr</t>
   </si>
   <si>
+    <t>1σ_Ne_Corr</t>
+  </si>
+  <si>
     <t>deltaNe</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>residual_pk1</t>
+  </si>
+  <si>
+    <t>1σ_Ne_Corr_test</t>
   </si>
   <si>
     <t>pk2_sigma</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,1906 +804,2065 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1.001156862686675</v>
       </c>
       <c r="D2">
+        <v>0.000335361619669559</v>
+      </c>
+      <c r="E2">
         <v>330.0957588801548</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1447.744338421631</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1117.648579541477</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>215902.7063533315</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>46564.90486288338</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2838.930856420813</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>207.4016431418981</v>
       </c>
-      <c r="K2">
+      <c r="L2">
+        <v>0.000335361619669559</v>
+      </c>
+      <c r="M2">
         <v>1.353410308273159</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.09669999999999999</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1.4860370156633E-09</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1.162331183734142</v>
       </c>
-      <c r="Q2">
-        <v>0.0539</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
+        <v>0.05388803824116861</v>
+      </c>
+      <c r="T2">
         <v>0.1761342875078372</v>
       </c>
-      <c r="S2">
-        <v>1.000700311934588</v>
-      </c>
-      <c r="T2">
-        <v>1.001613830214347</v>
-      </c>
       <c r="U2">
+        <v>1.000700348180669</v>
+      </c>
+      <c r="V2">
+        <v>1.001613793902062</v>
+      </c>
+      <c r="W2">
         <v>3046.332499562711</v>
       </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
       <c r="X2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2">
         <v>1</v>
       </c>
-      <c r="AF2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2">
+      <c r="AH2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI2">
         <v>7105</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:36">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1.000361813498088</v>
       </c>
       <c r="D3">
+        <v>0.0004396712802855008</v>
+      </c>
+      <c r="E3">
         <v>330.3581063245617</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1448.517749048326</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1118.159642723764</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>213799.9636485063</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>48424.25939291456</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3050.191836892714</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>553.7735900542677</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>0.0004396712802855008</v>
+      </c>
+      <c r="M3">
         <v>1.480902597339079</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.123</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1.852173969751902E-11</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.9027261388302016</v>
       </c>
-      <c r="Q3">
-        <v>0.07729999999999999</v>
-      </c>
-      <c r="R3">
+      <c r="S3">
+        <v>0.0772545386327422</v>
+      </c>
+      <c r="T3">
         <v>0.4111632472433012</v>
       </c>
-      <c r="S3">
-        <v>0.9997556499051803</v>
-      </c>
-      <c r="T3">
-        <v>1.000968712585147</v>
-      </c>
       <c r="U3">
+        <v>0.9997557874005941</v>
+      </c>
+      <c r="V3">
+        <v>1.000968574755906</v>
+      </c>
+      <c r="W3">
         <v>3603.965426946982</v>
       </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>34</v>
-      </c>
       <c r="X3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z3">
+        <v>36</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3">
         <v>1</v>
       </c>
-      <c r="AF3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3">
+      <c r="AH3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3">
         <v>7227</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>1.001203543382377</v>
       </c>
       <c r="D4">
+        <v>0.000231410987880006</v>
+      </c>
+      <c r="E4">
         <v>330.0803683037084</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1448.044885635041</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1117.964517331332</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>200969.2458278779</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>39896.69775952639</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1674.778559078925</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>426.3043660926456</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0.000231410987880006</v>
+      </c>
+      <c r="M4">
         <v>1.427484916621582</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.06279999999999999</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>9.609033124746702E-09</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1.128324366626255</v>
       </c>
-      <c r="Q4">
-        <v>0.0435</v>
-      </c>
-      <c r="R4">
+      <c r="S4">
+        <v>0.04348229171429933</v>
+      </c>
+      <c r="T4">
         <v>0.2764848457030177</v>
       </c>
-      <c r="S4">
-        <v>1.000881216811143</v>
-      </c>
-      <c r="T4">
-        <v>1.001526077626381</v>
-      </c>
       <c r="U4">
+        <v>1.000881270489541</v>
+      </c>
+      <c r="V4">
+        <v>1.001526023878798</v>
+      </c>
+      <c r="W4">
         <v>2101.08292517157</v>
       </c>
-      <c r="V4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
       <c r="X4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="Y4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4">
         <v>1</v>
       </c>
-      <c r="AF4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4">
+      <c r="AH4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4">
         <v>8155</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>1.000463255777369</v>
       </c>
       <c r="D5">
+        <v>0.00039030660272024</v>
+      </c>
+      <c r="E5">
         <v>330.3246095628458</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1448.386875308901</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1118.062265746055</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>215030.7284951554</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>60122.5748071362</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3010.880590751673</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>702.6384201881237</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>0.00039030660272024</v>
+      </c>
+      <c r="M5">
         <v>1.519435144852225</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.118</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>8.906612669612457E-10</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.9027261390496323</v>
       </c>
-      <c r="Q5">
-        <v>0.0519</v>
-      </c>
-      <c r="R5">
+      <c r="S5">
+        <v>0.05194609946297388</v>
+      </c>
+      <c r="T5">
         <v>0.466565769070456</v>
       </c>
-      <c r="S5">
-        <v>0.9999489394960444</v>
-      </c>
-      <c r="T5">
-        <v>1.000978101400445</v>
-      </c>
       <c r="U5">
+        <v>0.9999488000168655</v>
+      </c>
+      <c r="V5">
+        <v>1.000978241166919</v>
+      </c>
+      <c r="W5">
         <v>3713.519010939797</v>
       </c>
-      <c r="V5" t="s">
-        <v>60</v>
-      </c>
-      <c r="W5" t="s">
-        <v>36</v>
-      </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z5">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
-      <c r="AF5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG5">
+      <c r="AH5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI5">
         <v>8434</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1.001018714199595</v>
       </c>
       <c r="D6">
+        <v>0.000191447127494358</v>
+      </c>
+      <c r="E6">
         <v>330.1413147014737</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1448.136827525423</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1117.99551282395</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>186271.0370859129</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>24002.34781785569</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1314.688714041644</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>258.3645862895871</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0.000191447127494358</v>
+      </c>
+      <c r="M6">
         <v>1.141979167462437</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.0501</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.4531543951869683</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1.075489068267882</v>
       </c>
-      <c r="Q6">
-        <v>0.0385</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <v>0.03853326181344042</v>
+      </c>
+      <c r="T6">
         <v>0.4146431262716482</v>
       </c>
-      <c r="S6">
-        <v>1.000750142958378</v>
-      </c>
-      <c r="T6">
-        <v>1.001287429632395</v>
-      </c>
       <c r="U6">
+        <v>1.000750042159633</v>
+      </c>
+      <c r="V6">
+        <v>1.001287530539424</v>
+      </c>
+      <c r="W6">
         <v>1573.053300331231</v>
       </c>
-      <c r="V6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W6" t="s">
-        <v>37</v>
-      </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z6">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB6">
         <v>1</v>
       </c>
-      <c r="AF6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG6">
+      <c r="AH6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI6">
         <v>10609</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>1.00041616701041</v>
       </c>
       <c r="D7">
+        <v>0.0003927116563242082</v>
+      </c>
+      <c r="E7">
         <v>330.3401576707965</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1448.321952666135</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1117.981794995339</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>220569.3538159321</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>55930.85232523726</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3180.623190413022</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>610.084370817436</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>0.0003927116563242082</v>
+      </c>
+      <c r="M7">
         <v>1.552059506220811</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.123</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>2.194725512438822E-10</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.093966507950459</v>
       </c>
-      <c r="Q7">
-        <v>0.0412</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
+        <v>0.04123670297232358</v>
+      </c>
+      <c r="T7">
         <v>0.2568146645005008</v>
       </c>
-      <c r="S7">
-        <v>0.9999191438069017</v>
-      </c>
-      <c r="T7">
-        <v>1.000913684563723</v>
-      </c>
       <c r="U7">
+        <v>0.9999190327644908</v>
+      </c>
+      <c r="V7">
+        <v>1.000913795827159</v>
+      </c>
+      <c r="W7">
         <v>3790.707561230458</v>
       </c>
-      <c r="V7" t="s">
-        <v>62</v>
-      </c>
-      <c r="W7" t="s">
-        <v>38</v>
-      </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z7">
+        <v>40</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
-      <c r="AF7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG7">
+      <c r="AH7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7">
         <v>10808</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>1.000438239082287</v>
       </c>
       <c r="D8">
+        <v>0.000185052337931627</v>
+      </c>
+      <c r="E8">
         <v>330.332869573022</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1448.280386519248</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1117.947516946226</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>194207.0712909518</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>38833.85284872806</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1145.337883325554</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>421.7609188053179</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <v>0.000185052337931627</v>
+      </c>
+      <c r="M8">
         <v>1.416068707119019</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.0426</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>1.942890293094024E-15</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>1.163610843400291</v>
       </c>
-      <c r="Q8">
-        <v>0.0438</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
+        <v>0.0438403777842571</v>
+      </c>
+      <c r="T8">
         <v>0.2479660788814572</v>
       </c>
-      <c r="S8">
-        <v>1.000176638528638</v>
-      </c>
-      <c r="T8">
-        <v>1.000699976517265</v>
-      </c>
       <c r="U8">
+        <v>1.000176516305403</v>
+      </c>
+      <c r="V8">
+        <v>1.000700098868468</v>
+      </c>
+      <c r="W8">
         <v>1567.098802130872</v>
       </c>
-      <c r="V8" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" t="s">
-        <v>39</v>
-      </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z8">
+        <v>41</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
-      <c r="AF8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG8">
+      <c r="AH8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8">
         <v>12758</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1.000246482117391</v>
       </c>
       <c r="D9">
+        <v>0.0002720227693256356</v>
+      </c>
+      <c r="E9">
         <v>330.3961975922723</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1448.53955427802</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1118.143356685748</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>186360.9110493576</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>38526.15401897299</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>828.9340760286397</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>468.0145736862395</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>0.0002720227693256357</v>
+      </c>
+      <c r="M9">
         <v>1.252845532945373</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.0483</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.1398523776759204</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.9027261400052951</v>
       </c>
-      <c r="Q9">
-        <v>0.07580000000000001</v>
-      </c>
-      <c r="R9">
+      <c r="S9">
+        <v>0.07579365084748296</v>
+      </c>
+      <c r="T9">
         <v>0.4504062276145017</v>
       </c>
-      <c r="S9">
-        <v>0.999870920951148</v>
-      </c>
-      <c r="T9">
-        <v>1.000622325518441</v>
-      </c>
       <c r="U9">
+        <v>0.9998709401582381</v>
+      </c>
+      <c r="V9">
+        <v>1.000622306282472</v>
+      </c>
+      <c r="W9">
         <v>1296.948649714879</v>
       </c>
-      <c r="V9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W9" t="s">
-        <v>40</v>
-      </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z9">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9">
         <v>1</v>
       </c>
-      <c r="AF9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG9">
+      <c r="AH9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI9">
         <v>13193</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>1.000147305945619</v>
       </c>
       <c r="D10">
+        <v>0.0002970186422011302</v>
+      </c>
+      <c r="E10">
         <v>330.4289601961912</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1448.664947542898</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1118.235987346707</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>186387.003495457</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>33046.55639200337</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1105.609592455505</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>423.7891398537781</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>0.0002970186422011302</v>
+      </c>
+      <c r="M10">
         <v>1.141979169388337</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.0547</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0.251807518047264</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.9027261388435424</v>
       </c>
-      <c r="Q10">
-        <v>0.0815</v>
-      </c>
-      <c r="R10">
+      <c r="S10">
+        <v>0.08148661599100199</v>
+      </c>
+      <c r="T10">
         <v>0.3611503616556817</v>
       </c>
-      <c r="S10">
-        <v>0.9997352236106604</v>
-      </c>
-      <c r="T10">
-        <v>1.000559728134313</v>
-      </c>
       <c r="U10">
+        <v>0.9997352640882041</v>
+      </c>
+      <c r="V10">
+        <v>1.000559687589979</v>
+      </c>
+      <c r="W10">
         <v>1529.398732309284</v>
       </c>
-      <c r="V10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W10" t="s">
-        <v>41</v>
-      </c>
       <c r="X10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Y10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z10">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB10">
         <v>1</v>
       </c>
-      <c r="AF10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG10">
+      <c r="AH10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI10">
         <v>14888</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:36">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>1.000270190506009</v>
       </c>
       <c r="D11">
+        <v>0.000181907131380504</v>
+      </c>
+      <c r="E11">
         <v>330.3883665466963</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1448.599158244362</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1118.210791697665</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>186450.7850221031</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>30951.40903091468</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1429.250186569565</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>394.7250319657187</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>0.000181907131380504</v>
+      </c>
+      <c r="M11">
         <v>1.141979167654315</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.0601</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.3278108681134252</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.9027261388131658</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0.4177017271165545</v>
       </c>
       <c r="U11">
+        <v>1.000088267318174</v>
+      </c>
+      <c r="V11">
+        <v>1.000452179892136</v>
+      </c>
+      <c r="W11">
         <v>1823.975218535284</v>
       </c>
-      <c r="V11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" t="s">
-        <v>42</v>
-      </c>
       <c r="X11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Y11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z11">
+        <v>44</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
-      <c r="AF11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG11">
+      <c r="AH11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11">
         <v>14964</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:36">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>1.00030169634916</v>
       </c>
       <c r="D12">
+        <v>0.0002962243290808375</v>
+      </c>
+      <c r="E12">
         <v>330.3779605221002</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1448.490883375149</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1118.112922853049</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>186540.65897731</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>27273.7582690038</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1662.100545722574</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>328.5295625388171</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>0.0002962243290808375</v>
+      </c>
+      <c r="M12">
         <v>1.141979167536175</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.0668</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>0.421749186980255</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.9027261390646698</v>
       </c>
-      <c r="Q12">
-        <v>0.07149999999999999</v>
-      </c>
-      <c r="R12">
+      <c r="S12">
+        <v>0.07152280712973123</v>
+      </c>
+      <c r="T12">
         <v>0.5131536999122317</v>
       </c>
-      <c r="S12">
-        <v>0.9998831338119145</v>
-      </c>
-      <c r="T12">
-        <v>1.000720609463311</v>
-      </c>
       <c r="U12">
+        <v>0.999883064815422</v>
+      </c>
+      <c r="V12">
+        <v>1.00072067857544</v>
+      </c>
+      <c r="W12">
         <v>1990.630108261391</v>
       </c>
-      <c r="V12" t="s">
-        <v>67</v>
-      </c>
-      <c r="W12" t="s">
-        <v>43</v>
-      </c>
       <c r="X12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Y12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z12">
+        <v>45</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
-      <c r="AF12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG12">
+      <c r="AH12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI12">
         <v>16297</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:36">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>1.000311914704606</v>
       </c>
       <c r="D13">
+        <v>0.0002748580651926409</v>
+      </c>
+      <c r="E13">
         <v>330.3745856553387</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1448.481722002183</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1118.107136346845</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>186569.6505802802</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>25867.15558655941</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1317.132254412622</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>290.4045264903806</v>
       </c>
-      <c r="K13">
+      <c r="L13">
+        <v>0.0002748580651926409</v>
+      </c>
+      <c r="M13">
         <v>1.1419791674438</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.0551</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>0.4207613632438872</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.9027261678033187</v>
       </c>
-      <c r="Q13">
-        <v>0.0722</v>
-      </c>
-      <c r="R13">
+      <c r="S13">
+        <v>0.07217853781325015</v>
+      </c>
+      <c r="T13">
         <v>0.5655134876580054</v>
       </c>
-      <c r="S13">
-        <v>0.9999266227826269</v>
-      </c>
-      <c r="T13">
-        <v>1.000697503662557</v>
-      </c>
       <c r="U13">
+        <v>0.9999266877160337</v>
+      </c>
+      <c r="V13">
+        <v>1.000697438629001</v>
+      </c>
+      <c r="W13">
         <v>1607.536780903003</v>
       </c>
-      <c r="V13" t="s">
-        <v>68</v>
-      </c>
-      <c r="W13" t="s">
-        <v>44</v>
-      </c>
       <c r="X13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Y13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z13">
+        <v>46</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
       </c>
-      <c r="AF13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG13">
+      <c r="AH13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI13">
         <v>16390</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:36">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>1.00036220236927</v>
       </c>
       <c r="D14">
+        <v>0.0002544488984183388</v>
+      </c>
+      <c r="E14">
         <v>330.3579779043287</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1448.452336788121</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1118.094358883792</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>186355.1127367161</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>32616.52663691467</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1013.896497104844</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>363.0311617399789</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <v>0.0002544488984183387</v>
+      </c>
+      <c r="M14">
         <v>1.338550823995842</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.0422</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>0.01408058457090111</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.9027261423064551</v>
       </c>
-      <c r="Q14">
-        <v>0.0727</v>
-      </c>
-      <c r="R14">
+      <c r="S14">
+        <v>0.07269878311056228</v>
+      </c>
+      <c r="T14">
         <v>0.6199512472726596</v>
       </c>
-      <c r="S14">
-        <v>1.00001439283712</v>
-      </c>
-      <c r="T14">
-        <v>1.000710253925056</v>
-      </c>
       <c r="U14">
+        <v>1.00001439651944</v>
+      </c>
+      <c r="V14">
+        <v>1.00071025023761</v>
+      </c>
+      <c r="W14">
         <v>1376.927658844823</v>
       </c>
-      <c r="V14" t="s">
-        <v>69</v>
-      </c>
-      <c r="W14" t="s">
-        <v>45</v>
-      </c>
       <c r="X14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z14">
+        <v>47</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
-      <c r="AF14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG14">
+      <c r="AH14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI14">
         <v>18608</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:36">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>1.00036934255411</v>
       </c>
       <c r="D15">
+        <v>0.0002451564248312761</v>
+      </c>
+      <c r="E15">
         <v>330.3556199581928</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1448.455617604647</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1118.099997646454</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>186430.4908920626</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>29027.30126877719</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>656.2867711664837</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>327.8017744931564</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>0.0002451564248312761</v>
+      </c>
+      <c r="M15">
         <v>1.259297822713707</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.0363</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>0.1867712293404011</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.9027261388699297</v>
       </c>
-      <c r="Q15">
-        <v>0.07240000000000001</v>
-      </c>
-      <c r="R15">
+      <c r="S15">
+        <v>0.07239817791009837</v>
+      </c>
+      <c r="T15">
         <v>0.6027208093626665</v>
       </c>
-      <c r="S15">
-        <v>1.000040289942471</v>
-      </c>
-      <c r="T15">
-        <v>1.000698611779541</v>
-      </c>
       <c r="U15">
+        <v>1.00004029545642</v>
+      </c>
+      <c r="V15">
+        <v>1.000698606258331</v>
+      </c>
+      <c r="W15">
         <v>984.0885456596401</v>
       </c>
-      <c r="V15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W15" t="s">
-        <v>46</v>
-      </c>
       <c r="X15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z15">
+        <v>48</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15">
         <v>1</v>
       </c>
-      <c r="AF15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG15">
+      <c r="AH15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI15">
         <v>18742</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:36">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>1.000371021738635</v>
       </c>
       <c r="D16">
+        <v>0.0009071400244459412</v>
+      </c>
+      <c r="E16">
         <v>330.355065435888</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1448.225767607844</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1117.870702171956</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>182383.2633780849</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>11320.38394366622</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5790.471104345149</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>98.63443805366033</v>
       </c>
-      <c r="K16">
+      <c r="L16">
+        <v>0.0009071400244459413</v>
+      </c>
+      <c r="M16">
         <v>1.141979167446091</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.296</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>0.6629511549204886</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>1.199585496130716</v>
       </c>
-      <c r="Q16">
-        <v>0.0468</v>
-      </c>
-      <c r="R16">
+      <c r="S16">
+        <v>0.04680902445818898</v>
+      </c>
+      <c r="T16">
         <v>0.1911856595153736</v>
       </c>
-      <c r="S16">
-        <v>0.9993340413946579</v>
-      </c>
-      <c r="T16">
-        <v>1.001410156407763</v>
-      </c>
       <c r="U16">
+        <v>0.9993340141236984</v>
+      </c>
+      <c r="V16">
+        <v>1.001410183792153</v>
+      </c>
+      <c r="W16">
         <v>5889.105542398809</v>
       </c>
-      <c r="V16" t="s">
-        <v>71</v>
-      </c>
-      <c r="W16" t="s">
-        <v>47</v>
-      </c>
       <c r="X16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z16">
+        <v>49</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB16">
         <v>1</v>
       </c>
-      <c r="AF16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG16">
+      <c r="AH16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI16">
         <v>21263</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>1.000535458332032</v>
       </c>
       <c r="D17">
+        <v>0.0003462778817359834</v>
+      </c>
+      <c r="E17">
         <v>330.3007720461642</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1448.417168715858</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1118.116396669694</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>186413.09593143</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>30486.38175421131</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2156.7546652389</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>381.4914216414805</v>
       </c>
-      <c r="K17">
+      <c r="L17">
+        <v>0.0003462778817359834</v>
+      </c>
+      <c r="M17">
         <v>1.141979167444843</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>0.0867</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>0.4622756384666743</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.9027261490307966</v>
       </c>
-      <c r="Q17">
-        <v>0.0746</v>
-      </c>
-      <c r="R17">
+      <c r="S17">
+        <v>0.07459856196672812</v>
+      </c>
+      <c r="T17">
         <v>0.4350019711907531</v>
       </c>
-      <c r="S17">
-        <v>1.000047092546422</v>
-      </c>
-      <c r="T17">
-        <v>1.001024301330504</v>
-      </c>
       <c r="U17">
+        <v>1.000047096898211</v>
+      </c>
+      <c r="V17">
+        <v>1.001024296970206</v>
+      </c>
+      <c r="W17">
         <v>2538.24608688038</v>
       </c>
-      <c r="V17" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" t="s">
-        <v>48</v>
-      </c>
       <c r="X17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z17">
+        <v>50</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB17">
         <v>1</v>
       </c>
-      <c r="AF17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG17">
+      <c r="AH17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI17">
         <v>21448</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>1.000556190874924</v>
       </c>
       <c r="D18">
+        <v>0.0002451625098782009</v>
+      </c>
+      <c r="E18">
         <v>330.2939278779045</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1448.113652877449</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1117.819724999545</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>200344.0520801816</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>50303.17424460821</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1714.594604445124</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>406.474405060326</v>
       </c>
-      <c r="K18">
+      <c r="L18">
+        <v>0.0002451625098782009</v>
+      </c>
+      <c r="M18">
         <v>1.43979835641463</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.0625</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>5.551115123125783E-17</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1.200422403231633</v>
       </c>
-      <c r="Q18">
-        <v>0.0515</v>
-      </c>
-      <c r="R18">
+      <c r="S18">
+        <v>0.05148603795924121</v>
+      </c>
+      <c r="T18">
         <v>0.07292451697210411</v>
       </c>
-      <c r="S18">
-        <v>1.000210970932738</v>
-      </c>
-      <c r="T18">
-        <v>1.000901649202729</v>
-      </c>
       <c r="U18">
+        <v>1.000211013198633</v>
+      </c>
+      <c r="V18">
+        <v>1.000901606878445</v>
+      </c>
+      <c r="W18">
         <v>2121.06900950545</v>
       </c>
-      <c r="V18" t="s">
-        <v>73</v>
-      </c>
-      <c r="W18" t="s">
-        <v>49</v>
-      </c>
       <c r="X18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z18">
+        <v>51</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB18">
         <v>1</v>
       </c>
-      <c r="AF18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG18">
+      <c r="AH18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI18">
         <v>24797</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>1.000681852581197</v>
       </c>
       <c r="D19">
+        <v>0.001034505054788115</v>
+      </c>
+      <c r="E19">
         <v>330.2524508605668</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1448.263367787069</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1118.010916926503</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>152139.2251075071</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9456.024033668889</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5421.458247092383</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>106.763529144387</v>
       </c>
-      <c r="K19">
+      <c r="L19">
+        <v>0.001034505054788115</v>
+      </c>
+      <c r="M19">
         <v>1.141979167442376</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.34</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.6885116670249152</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.9027261396975661</v>
       </c>
-      <c r="Q19">
-        <v>0.0335</v>
-      </c>
-      <c r="R19">
+      <c r="S19">
+        <v>0.03351476670843938</v>
+      </c>
+      <c r="T19">
         <v>0.5051625107155401</v>
       </c>
-      <c r="S19">
-        <v>0.9995514069190642</v>
-      </c>
-      <c r="T19">
-        <v>1.001814858100234</v>
-      </c>
       <c r="U19">
+        <v>0.9995513622762174</v>
+      </c>
+      <c r="V19">
+        <v>1.001814902945498</v>
+      </c>
+      <c r="W19">
         <v>5528.22177623677</v>
       </c>
-      <c r="V19" t="s">
-        <v>74</v>
-      </c>
-      <c r="W19" t="s">
-        <v>50</v>
-      </c>
       <c r="X19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z19">
+        <v>52</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB19">
         <v>1</v>
       </c>
-      <c r="AF19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG19">
+      <c r="AH19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI19">
         <v>24917</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>1.000630374936423</v>
       </c>
       <c r="D20">
+        <v>0.0001562524450621513</v>
+      </c>
+      <c r="E20">
         <v>330.2694407689057</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1448.047774423588</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1117.778333654682</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>186331.9194482264</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>35579.16565682116</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>561.3607433435405</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>267.5996978979044</v>
       </c>
-      <c r="K20">
+      <c r="L20">
+        <v>0.0001562524450621513</v>
+      </c>
+      <c r="M20">
         <v>1.297537970494297</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>0.08839204760862956</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>1.208417558714716</v>
       </c>
-      <c r="Q20">
-        <v>0.0516</v>
-      </c>
-      <c r="R20">
+      <c r="S20">
+        <v>0.05160540764945086</v>
+      </c>
+      <c r="T20">
         <v>0.1277130124282202</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>828.9604412414449</v>
       </c>
-      <c r="V20" t="s">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s">
-        <v>51</v>
-      </c>
       <c r="X20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z20">
+        <v>53</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
       </c>
-      <c r="AF20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG20">
+      <c r="AH20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI20">
         <v>26584</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>1.000263383791196</v>
       </c>
       <c r="D21">
+        <v>0.0008077117275780937</v>
+      </c>
+      <c r="E21">
         <v>330.3906148139276</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1448.213848872356</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1117.823234058429</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>186627.6337798873</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>13224.74888721644</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5373.149605047305</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>108.0678044056355</v>
       </c>
-      <c r="K21">
+      <c r="L21">
+        <v>0.0008077117275780937</v>
+      </c>
+      <c r="M21">
         <v>1.141979167441874</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.262</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0.6391208342495018</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>1.205481319453178</v>
       </c>
-      <c r="Q21">
-        <v>0.0507</v>
-      </c>
-      <c r="R21">
+      <c r="S21">
+        <v>0.05069969776926189</v>
+      </c>
+      <c r="T21">
         <v>0.1880472678343537</v>
       </c>
-      <c r="S21">
-        <v>0.9993175742208035</v>
-      </c>
-      <c r="T21">
-        <v>1.00121098539092</v>
-      </c>
       <c r="U21">
+        <v>0.9993175751340829</v>
+      </c>
+      <c r="V21">
+        <v>1.001210984474177</v>
+      </c>
+      <c r="W21">
         <v>5481.217409452941</v>
       </c>
-      <c r="V21" t="s">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s">
-        <v>52</v>
-      </c>
       <c r="X21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z21">
+        <v>54</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB21">
         <v>1</v>
       </c>
-      <c r="AF21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG21">
+      <c r="AH21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI21">
         <v>26723</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>1.000668021784316</v>
       </c>
       <c r="D22">
+        <v>0.0001710209833863666</v>
+      </c>
+      <c r="E22">
         <v>330.2570154658786</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1448.195285160139</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1117.93826969426</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>186099.9866412664</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>36203.18186677825</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>753.44568551021</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>379.8123793709409</v>
       </c>
-      <c r="K22">
+      <c r="L22">
+        <v>0.0001710209833863666</v>
+      </c>
+      <c r="M22">
         <v>1.282288679812565</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.0364</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.163592278331949</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>1.138490907794827</v>
       </c>
-      <c r="Q22">
-        <v>0.0432</v>
-      </c>
-      <c r="R22">
+      <c r="S22">
+        <v>0.0431871480342403</v>
+      </c>
+      <c r="T22">
         <v>0.1863666397371903</v>
       </c>
-      <c r="S22">
-        <v>1.000426894489294</v>
-      </c>
-      <c r="T22">
-        <v>1.000909265342485</v>
-      </c>
       <c r="U22">
+        <v>1.000426933411569</v>
+      </c>
+      <c r="V22">
+        <v>1.00090922638267</v>
+      </c>
+      <c r="W22">
         <v>1133.258064881151</v>
       </c>
-      <c r="V22" t="s">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s">
-        <v>53</v>
-      </c>
       <c r="X22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z22">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB22">
         <v>1</v>
       </c>
-      <c r="AF22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG22">
+      <c r="AH22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI22">
         <v>29611</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>1.00056202348159</v>
       </c>
       <c r="D23">
+        <v>0.0001630235561556942</v>
+      </c>
+      <c r="E23">
         <v>330.2920024854548</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1448.272796779049</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1117.980794293594</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>186076.7933585217</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>37778.88738363726</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>790.7865042224336</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>416.181344415356</v>
       </c>
-      <c r="K23">
+      <c r="L23">
+        <v>0.0001630235561556942</v>
+      </c>
+      <c r="M23">
         <v>1.288300385720027</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.0397</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.1529532680360335</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1.041122973626315</v>
       </c>
-      <c r="Q23">
-        <v>0.0364</v>
-      </c>
-      <c r="R23">
+      <c r="S23">
+        <v>0.03637629178937134</v>
+      </c>
+      <c r="T23">
         <v>0.3244427057669688</v>
       </c>
-      <c r="S23">
-        <v>1.000331544905074</v>
-      </c>
-      <c r="T23">
-        <v>1.000792608288117</v>
-      </c>
       <c r="U23">
+        <v>1.000331616691886</v>
+      </c>
+      <c r="V23">
+        <v>1.000792536435126</v>
+      </c>
+      <c r="W23">
         <v>1206.96784863779</v>
       </c>
-      <c r="V23" t="s">
-        <v>78</v>
-      </c>
-      <c r="W23" t="s">
-        <v>54</v>
-      </c>
       <c r="X23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z23">
+        <v>56</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB23">
         <v>1</v>
       </c>
-      <c r="AF23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG23">
+      <c r="AH23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI23">
         <v>29745</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>1.000537927145901</v>
       </c>
       <c r="D24">
+        <v>0.000165878166709628</v>
+      </c>
+      <c r="E24">
         <v>330.2999570334548</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1448.115531664991</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1117.815574631536</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>186381.2051735741</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>30474.35511942523</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>410.2874630550331</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>258.7019338771614</v>
       </c>
-      <c r="K24">
+      <c r="L24">
+        <v>0.000165878166709628</v>
+      </c>
+      <c r="M24">
         <v>1.259763196385204</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.019</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0.2030863540825715</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1.231749651244549</v>
       </c>
-      <c r="Q24">
-        <v>0.0514</v>
-      </c>
-      <c r="R24">
+      <c r="S24">
+        <v>0.05138963840802335</v>
+      </c>
+      <c r="T24">
         <v>0.1610664062559768</v>
       </c>
-      <c r="S24">
-        <v>1.000324718337751</v>
-      </c>
-      <c r="T24">
-        <v>1.000751226859905</v>
-      </c>
       <c r="U24">
+        <v>1.000324749711501</v>
+      </c>
+      <c r="V24">
+        <v>1.000751195459398</v>
+      </c>
+      <c r="W24">
         <v>668.9893969321945</v>
-      </c>
-      <c r="V24" t="s">
-        <v>79</v>
-      </c>
-      <c r="W24" t="s">
-        <v>55</v>
       </c>
       <c r="X24" t="s">
         <v>81</v>
       </c>
       <c r="Y24" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z24">
+        <v>57</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB24">
         <v>1</v>
       </c>
-      <c r="AF24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG24">
+      <c r="AH24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI24">
         <v>32668</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>1.000098376761551</v>
       </c>
       <c r="D25">
+        <v>0.0003629324721718341</v>
+      </c>
+      <c r="E25">
         <v>330.4451262252444</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1448.553878750398</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1118.108752525153</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>201929.4074392629</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>50278.44270802592</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2318.611117523631</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>588.780574643259</v>
       </c>
-      <c r="K25">
+      <c r="L25">
+        <v>0.0003629324721718341</v>
+      </c>
+      <c r="M25">
         <v>1.401790346906763</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.096</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>1.046821518357888E-10</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.902726138813387</v>
       </c>
-      <c r="Q25">
-        <v>0.07190000000000001</v>
-      </c>
-      <c r="R25">
+      <c r="S25">
+        <v>0.07188204909399697</v>
+      </c>
+      <c r="T25">
         <v>0.4262674795877546</v>
       </c>
-      <c r="S25">
-        <v>0.9995904823226196</v>
-      </c>
-      <c r="T25">
-        <v>1.000606787587745</v>
-      </c>
       <c r="U25">
+        <v>0.999590536596209</v>
+      </c>
+      <c r="V25">
+        <v>1.000606733203743</v>
+      </c>
+      <c r="W25">
         <v>2907.39169216689</v>
       </c>
-      <c r="V25" t="s">
-        <v>80</v>
-      </c>
-      <c r="W25" t="s">
-        <v>56</v>
-      </c>
       <c r="X25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z25">
+        <v>58</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB25">
         <v>1</v>
       </c>
-      <c r="AF25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG25">
+      <c r="AH25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI25">
         <v>32795</v>
       </c>
     </row>

--- a/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1c_HORIBA_Calibration/PseudoVoigt.xlsx
@@ -612,7 +612,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -620,63 +620,63 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.001156862643832</v>
+        <v>1.001156853174567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003353609008231034</v>
+        <v>0.000335360949801108</v>
       </c>
       <c r="E2" t="n">
-        <v>330.0957588942806</v>
+        <v>330.0957620164329</v>
       </c>
       <c r="F2" t="n">
-        <v>1447.744338416731</v>
+        <v>1447.744341534425</v>
       </c>
       <c r="G2" t="n">
-        <v>1117.648579522451</v>
+        <v>1117.648579517992</v>
       </c>
       <c r="H2" t="n">
-        <v>215902.6990751079</v>
+        <v>215902.641901549</v>
       </c>
       <c r="I2" t="n">
-        <v>46564.90383050614</v>
+        <v>46564.90137121881</v>
       </c>
       <c r="J2" t="n">
-        <v>2838.931153593593</v>
+        <v>2838.937476013666</v>
       </c>
       <c r="K2" t="n">
-        <v>207.40151187831</v>
+        <v>207.4012482881356</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003353609008231034</v>
+        <v>0.000335360949801108</v>
       </c>
       <c r="M2" t="n">
-        <v>1.35341023489058</v>
+        <v>1.353410385350083</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>0.09669999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>1.702123109126319e-09</v>
+        <v>2.875951143899158e-10</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.1623312475017</v>
+        <v>1.162331356937574</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>0.05388755079143441</v>
+        <v>0.05388758615513587</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1761341447477456</v>
+        <v>0.1761338512215463</v>
       </c>
       <c r="U2" t="n">
-        <v>1.000700349614918</v>
+        <v>1.000700340047129</v>
       </c>
       <c r="V2" t="n">
-        <v>1.001613792379429</v>
+        <v>1.001613783008872</v>
       </c>
       <c r="W2" t="n">
-        <v>3046.332665471903</v>
+        <v>3046.338724301802</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -726,63 +726,63 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.000361766674816</v>
+        <v>1.000401166456876</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004392172552134738</v>
+        <v>0.0004178058404982184</v>
       </c>
       <c r="E3" t="n">
-        <v>330.3581217874155</v>
+        <v>330.3451109689192</v>
       </c>
       <c r="F3" t="n">
-        <v>1448.517749054058</v>
+        <v>1448.517750594862</v>
       </c>
       <c r="G3" t="n">
-        <v>1118.159627266642</v>
+        <v>1118.172639625943</v>
       </c>
       <c r="H3" t="n">
-        <v>213799.959820007</v>
+        <v>213799.6243229516</v>
       </c>
       <c r="I3" t="n">
-        <v>48425.16577397489</v>
+        <v>47770.84452322374</v>
       </c>
       <c r="J3" t="n">
-        <v>3050.192022150786</v>
+        <v>3050.196157377656</v>
       </c>
       <c r="K3" t="n">
-        <v>553.7497825409118</v>
+        <v>581.4467809830752</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004392172552134738</v>
+        <v>0.0004178058404982184</v>
       </c>
       <c r="M3" t="n">
-        <v>1.480902539724859</v>
+        <v>1.48090072228543</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
         <v>0.123</v>
       </c>
       <c r="P3" t="n">
-        <v>2.091993245301182e-12</v>
+        <v>1.00148106474407e-09</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9026540538708023</v>
+        <v>0.9667547764620253</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>0.07697217789771596</v>
+        <v>0.06261431645964829</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4112437668357365</v>
+        <v>0.3392635962831051</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9997565946193747</v>
+        <v>0.9998393766912278</v>
       </c>
       <c r="V3" t="n">
-        <v>1.000967671818772</v>
+        <v>1.000963587894333</v>
       </c>
       <c r="W3" t="n">
-        <v>3603.941804691698</v>
+        <v>3631.642938360731</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -832,63 +832,63 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.001203541162843</v>
+        <v>1.001203595976101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002314108390299376</v>
+        <v>0.0002313976270076806</v>
       </c>
       <c r="E4" t="n">
-        <v>330.0803690354523</v>
+        <v>330.0803509644222</v>
       </c>
       <c r="F4" t="n">
-        <v>1448.044886037428</v>
+        <v>1448.044886159771</v>
       </c>
       <c r="G4" t="n">
-        <v>1117.964517001975</v>
+        <v>1117.964535195349</v>
       </c>
       <c r="H4" t="n">
-        <v>200969.0023829923</v>
+        <v>200969.0017797578</v>
       </c>
       <c r="I4" t="n">
-        <v>39896.70221348662</v>
+        <v>39895.70280625239</v>
       </c>
       <c r="J4" t="n">
-        <v>1674.822130190706</v>
+        <v>1674.824102559225</v>
       </c>
       <c r="K4" t="n">
-        <v>426.3050148533192</v>
+        <v>426.2445952370882</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002314108390299376</v>
+        <v>0.0002313976270076806</v>
       </c>
       <c r="M4" t="n">
-        <v>1.427474274039508</v>
+        <v>1.427473829512924</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.06279999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>1.61643476381812e-11</v>
+        <v>7.39575067854048e-13</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.128324177906149</v>
+        <v>1.128398536825706</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>0.04348220570193153</v>
+        <v>0.04347453698098758</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2764853247450497</v>
+        <v>0.2763524048567478</v>
       </c>
       <c r="U4" t="n">
-        <v>1.000881268532162</v>
+        <v>1.000881346556021</v>
       </c>
       <c r="V4" t="n">
-        <v>1.001526021396771</v>
+        <v>1.001526052969504</v>
       </c>
       <c r="W4" t="n">
-        <v>2101.127145044025</v>
+        <v>2101.068697796313</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -938,63 +938,63 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.000463247671546</v>
+        <v>1.00047008960736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003902497087126921</v>
+        <v>0.0003810584208940487</v>
       </c>
       <c r="E5" t="n">
-        <v>330.3246122391586</v>
+        <v>330.3223532412953</v>
       </c>
       <c r="F5" t="n">
-        <v>1448.386875293381</v>
+        <v>1448.386874520705</v>
       </c>
       <c r="G5" t="n">
-        <v>1118.062263054222</v>
+        <v>1118.06452127941</v>
       </c>
       <c r="H5" t="n">
-        <v>215030.7242587643</v>
+        <v>215030.9421204123</v>
       </c>
       <c r="I5" t="n">
-        <v>60123.3566935983</v>
+        <v>59213.16766981687</v>
       </c>
       <c r="J5" t="n">
-        <v>3010.880884292481</v>
+        <v>3010.880841333779</v>
       </c>
       <c r="K5" t="n">
-        <v>702.6214726533874</v>
+        <v>708.6246179884685</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003902497087126921</v>
+        <v>0.0003810584208940487</v>
       </c>
       <c r="M5" t="n">
-        <v>1.519435052887894</v>
+        <v>1.519435303494478</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.118</v>
       </c>
       <c r="P5" t="n">
-        <v>7.455398520761491e-10</v>
+        <v>1.743843291990288e-09</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9026540538606952</v>
+        <v>0.966754776463567</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>0.05189943990226879</v>
+        <v>0.04381539867908269</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4666264309588837</v>
+        <v>0.3974044503900757</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9999489330931939</v>
+        <v>0.9999802281199479</v>
       </c>
       <c r="V5" t="n">
-        <v>1.000978091588148</v>
+        <v>1.000960431268039</v>
       </c>
       <c r="W5" t="n">
-        <v>3713.502356945869</v>
+        <v>3719.505459322247</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1044,63 +1044,63 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.001018707832766</v>
+        <v>1.001001671780932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001914490897365731</v>
+        <v>0.0001207202419152443</v>
       </c>
       <c r="E6" t="n">
-        <v>330.1413168012878</v>
+        <v>330.1469354778037</v>
       </c>
       <c r="F6" t="n">
-        <v>1448.136827430925</v>
+        <v>1448.142457104646</v>
       </c>
       <c r="G6" t="n">
-        <v>1117.995510629637</v>
+        <v>1117.995521626842</v>
       </c>
       <c r="H6" t="n">
-        <v>186270.955964921</v>
+        <v>169762.6807468818</v>
       </c>
       <c r="I6" t="n">
-        <v>24002.38319987691</v>
+        <v>24003.29692399155</v>
       </c>
       <c r="J6" t="n">
-        <v>1314.682245877943</v>
+        <v>236.1330176421418</v>
       </c>
       <c r="K6" t="n">
-        <v>258.3687870433418</v>
+        <v>258.3988285445531</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001914490897365731</v>
+        <v>0.0001207202419152443</v>
       </c>
       <c r="M6" t="n">
-        <v>1.141978670115503</v>
+        <v>1.13536352357441</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>0.0501</v>
+        <v>0.0102</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4531541215045493</v>
+        <v>0.2410359870211616</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.075484187681082</v>
+        <v>1.075334537123461</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>0.03853432505294661</v>
+        <v>0.03852809802540044</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4146506556265038</v>
+        <v>0.4148614939876762</v>
       </c>
       <c r="U6" t="n">
-        <v>1.000750032574112</v>
+        <v>1.000853950556922</v>
       </c>
       <c r="V6" t="n">
-        <v>1.001287527394747</v>
+        <v>1.001149436617261</v>
       </c>
       <c r="W6" t="n">
-        <v>1573.051032921285</v>
+        <v>494.5318461866949</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1150,63 +1150,63 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.000416148502696</v>
+        <v>1.000416229899191</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003927151878320814</v>
+        <v>0.0003927022346914026</v>
       </c>
       <c r="E7" t="n">
-        <v>330.3401637820946</v>
+        <v>330.3401369047504</v>
       </c>
       <c r="F7" t="n">
-        <v>1448.321952675212</v>
+        <v>1448.321952460962</v>
       </c>
       <c r="G7" t="n">
-        <v>1117.981788893117</v>
+        <v>1117.981815556212</v>
       </c>
       <c r="H7" t="n">
-        <v>220569.3520508623</v>
+        <v>220569.2355933926</v>
       </c>
       <c r="I7" t="n">
-        <v>55928.80147167305</v>
+        <v>55929.93909179656</v>
       </c>
       <c r="J7" t="n">
-        <v>3180.623377540411</v>
+        <v>3180.63874818116</v>
       </c>
       <c r="K7" t="n">
-        <v>609.9845963439185</v>
+        <v>609.9771500606861</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003927151878320814</v>
+        <v>0.0003927022346914026</v>
       </c>
       <c r="M7" t="n">
-        <v>1.552059440266461</v>
+        <v>1.552054068257124</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
         <v>0.123</v>
       </c>
       <c r="P7" t="n">
-        <v>1.456711418157397e-10</v>
+        <v>1.73190128904821e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.094085631685856</v>
+        <v>1.094014404372682</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>0.04124038043193497</v>
+        <v>0.04122688500250283</v>
       </c>
       <c r="T7" t="n">
-        <v>0.256616384187593</v>
+        <v>0.2567299436955707</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9999190031492576</v>
+        <v>0.9999191252944029</v>
       </c>
       <c r="V7" t="n">
-        <v>1.000913788449084</v>
+        <v>1.000913829015772</v>
       </c>
       <c r="W7" t="n">
-        <v>3790.60797388433</v>
+        <v>3790.615898241846</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1256,63 +1256,63 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.000438203562244</v>
+        <v>1.000438234054134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001850612998893505</v>
+        <v>0.0001850537095867969</v>
       </c>
       <c r="E8" t="n">
-        <v>330.3328813013204</v>
+        <v>330.3328712332586</v>
       </c>
       <c r="F8" t="n">
-        <v>1448.280386514148</v>
+        <v>1448.28038663382</v>
       </c>
       <c r="G8" t="n">
-        <v>1117.947505212828</v>
+        <v>1117.947515400561</v>
       </c>
       <c r="H8" t="n">
-        <v>194207.0711260848</v>
+        <v>194206.9876862766</v>
       </c>
       <c r="I8" t="n">
-        <v>38834.85322672228</v>
+        <v>38834.05612871509</v>
       </c>
       <c r="J8" t="n">
-        <v>1145.337887515391</v>
+        <v>1145.338193194471</v>
       </c>
       <c r="K8" t="n">
-        <v>421.8131123244629</v>
+        <v>421.7704044924855</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001850612998893505</v>
+        <v>0.0001850537095867969</v>
       </c>
       <c r="M8" t="n">
-        <v>1.416068706063459</v>
+        <v>1.416068566545494</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
         <v>0.0426</v>
       </c>
       <c r="P8" t="n">
-        <v>1.248223746586063e-12</v>
+        <v>1.268918303765076e-11</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.163537364810256</v>
+        <v>1.16359564438594</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>0.04384450859323134</v>
+        <v>0.04384100999471027</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2481039846335877</v>
+        <v>0.2479942911508397</v>
       </c>
       <c r="U8" t="n">
-        <v>1.000176468300019</v>
+        <v>1.000176509366185</v>
       </c>
       <c r="V8" t="n">
-        <v>1.000700075846847</v>
+        <v>1.000700095753382</v>
       </c>
       <c r="W8" t="n">
-        <v>1567.150999839854</v>
+        <v>1567.108597686957</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1362,63 +1362,63 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.000246439373167</v>
+        <v>1.000292670507045</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002717563356067345</v>
+        <v>0.0002184733114124379</v>
       </c>
       <c r="E9" t="n">
-        <v>330.3962117113219</v>
+        <v>330.38094158894</v>
       </c>
       <c r="F9" t="n">
-        <v>1448.539555001132</v>
+        <v>1448.535171146654</v>
       </c>
       <c r="G9" t="n">
-        <v>1118.14334328981</v>
+        <v>1118.154229557714</v>
       </c>
       <c r="H9" t="n">
-        <v>186360.8298908379</v>
+        <v>175886.2479249525</v>
       </c>
       <c r="I9" t="n">
-        <v>38527.0204495809</v>
+        <v>38013.21006730144</v>
       </c>
       <c r="J9" t="n">
-        <v>828.9262178472297</v>
+        <v>938.2409361737648</v>
       </c>
       <c r="K9" t="n">
-        <v>468.0024955009449</v>
+        <v>487.3459755160821</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002717563356067346</v>
+        <v>0.0002184733114124379</v>
       </c>
       <c r="M9" t="n">
-        <v>1.25284235057704</v>
+        <v>1.253435972775758</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>0.0481</v>
+        <v>0.0381</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1398592549986296</v>
+        <v>3.972100426352654e-12</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9026540538671849</v>
+        <v>0.966754776462059</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>0.07581650703795706</v>
+        <v>0.06130463629608077</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4504925953531884</v>
+        <v>0.3810974428427386</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9998714333315916</v>
+        <v>0.9999917941304707</v>
       </c>
       <c r="V9" t="n">
-        <v>1.000621726815511</v>
+        <v>1.000593727992785</v>
       </c>
       <c r="W9" t="n">
-        <v>1296.928713348175</v>
+        <v>1425.586911689847</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1468,63 +1468,63 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.000147233013535</v>
+        <v>1.000248055981481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002971424976528382</v>
+        <v>0.0002273388613736469</v>
       </c>
       <c r="E10" t="n">
-        <v>330.4289842915164</v>
+        <v>330.3956777225183</v>
       </c>
       <c r="F10" t="n">
-        <v>1448.664947653639</v>
+        <v>1448.651828534373</v>
       </c>
       <c r="G10" t="n">
-        <v>1118.235963362123</v>
+        <v>1118.256150811855</v>
       </c>
       <c r="H10" t="n">
-        <v>186386.9223216187</v>
+        <v>169868.3695774174</v>
       </c>
       <c r="I10" t="n">
-        <v>33047.04866926666</v>
+        <v>32653.01192057137</v>
       </c>
       <c r="J10" t="n">
-        <v>1105.602787377546</v>
+        <v>815.1247329241148</v>
       </c>
       <c r="K10" t="n">
-        <v>423.7563368363602</v>
+        <v>458.6565788536441</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002971424976528382</v>
+        <v>0.0002273388613736469</v>
       </c>
       <c r="M10" t="n">
-        <v>1.141978671989021</v>
+        <v>1.1590992425974</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>0.0547</v>
+        <v>0.0336</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2518071653046937</v>
+        <v>8.947548029714092e-07</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9026540538791109</v>
+        <v>0.9667547766171807</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>0.08153591111294836</v>
+        <v>0.06717751908614128</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3612333069917519</v>
+        <v>0.2828164597302497</v>
       </c>
       <c r="U10" t="n">
-        <v>0.99973504213195</v>
+        <v>0.9999430526570772</v>
       </c>
       <c r="V10" t="n">
-        <v>1.000559763928018</v>
+        <v>1.000553245427308</v>
       </c>
       <c r="W10" t="n">
-        <v>1529.359124213906</v>
+        <v>1273.781311777759</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1574,63 +1574,63 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.000270126978826</v>
+        <v>1.000339922495967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003063943929099113</v>
+        <v>0.0002209393829326107</v>
       </c>
       <c r="E11" t="n">
-        <v>330.3883875296701</v>
+        <v>330.3653357371279</v>
       </c>
       <c r="F11" t="n">
-        <v>1448.599158331369</v>
+        <v>1448.593732443372</v>
       </c>
       <c r="G11" t="n">
-        <v>1118.210770801699</v>
+        <v>1118.228396706244</v>
       </c>
       <c r="H11" t="n">
-        <v>186450.7038299675</v>
+        <v>169926.4984315479</v>
       </c>
       <c r="I11" t="n">
-        <v>30951.88431427732</v>
+        <v>30578.38217824142</v>
       </c>
       <c r="J11" t="n">
-        <v>1429.243539657154</v>
+        <v>515.8627715593826</v>
       </c>
       <c r="K11" t="n">
-        <v>394.6998834930808</v>
+        <v>421.6186500209488</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003063943929099113</v>
+        <v>0.0002209393829326107</v>
       </c>
       <c r="M11" t="n">
-        <v>1.141978670273053</v>
+        <v>1.132294058673806</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>0.0601</v>
+        <v>0.0295</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3278105276396772</v>
+        <v>0.1184153547064885</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9026540538581993</v>
+        <v>0.9667547764680799</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>0.08145753920066742</v>
+        <v>0.06676371953069342</v>
       </c>
       <c r="T11" t="n">
-        <v>0.417780699802636</v>
+        <v>0.3438516994201691</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9998417368138095</v>
+        <v>1.000048522702791</v>
       </c>
       <c r="V11" t="n">
-        <v>1.00069888439556</v>
+        <v>1.000631492158081</v>
       </c>
       <c r="W11" t="n">
-        <v>1823.943423150235</v>
+        <v>937.4814215803315</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1680,63 +1680,63 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.000301668328403</v>
+        <v>1.000324959105986</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002962687114344745</v>
+        <v>0.0001917407108629074</v>
       </c>
       <c r="E12" t="n">
-        <v>330.3779697767493</v>
+        <v>330.3702775166068</v>
       </c>
       <c r="F12" t="n">
-        <v>1448.490883440064</v>
+        <v>1448.490720224422</v>
       </c>
       <c r="G12" t="n">
-        <v>1118.112913663315</v>
+        <v>1118.120442707815</v>
       </c>
       <c r="H12" t="n">
-        <v>186540.5777405522</v>
+        <v>170008.4072739611</v>
       </c>
       <c r="I12" t="n">
-        <v>27274.36029797869</v>
+        <v>26906.68539531031</v>
       </c>
       <c r="J12" t="n">
-        <v>1662.094087381075</v>
+        <v>518.4355403530767</v>
       </c>
       <c r="K12" t="n">
-        <v>328.5237416232522</v>
+        <v>337.9076580830986</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002962687114344745</v>
+        <v>0.0001917407108629074</v>
       </c>
       <c r="M12" t="n">
-        <v>1.141978670271255</v>
+        <v>1.115428696098428</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>0.0668</v>
+        <v>0.0274</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4217488781603124</v>
+        <v>0.2406700183039324</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9026540539573426</v>
+        <v>0.9667548295949767</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>0.07154287315998784</v>
+        <v>0.0571129034229963</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5132358092500747</v>
+        <v>0.4466656838693498</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9998829761140487</v>
+        <v>1.000069128750029</v>
       </c>
       <c r="V12" t="n">
-        <v>1.000720711337023</v>
+        <v>1.000580920384727</v>
       </c>
       <c r="W12" t="n">
-        <v>1990.617829004328</v>
+        <v>856.3431984361753</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1786,63 +1786,63 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.000311890492404</v>
+        <v>1.000352857834284</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002748858048008296</v>
+        <v>0.0001854137581845729</v>
       </c>
       <c r="E13" t="n">
-        <v>330.374593651941</v>
+        <v>330.3610638571083</v>
       </c>
       <c r="F13" t="n">
-        <v>1448.481722098086</v>
+        <v>1448.475102626451</v>
       </c>
       <c r="G13" t="n">
-        <v>1118.107128446145</v>
+        <v>1118.114038769342</v>
       </c>
       <c r="H13" t="n">
-        <v>186569.5693280197</v>
+        <v>170034.8294810759</v>
       </c>
       <c r="I13" t="n">
-        <v>25867.51377309771</v>
+        <v>25531.82135897152</v>
       </c>
       <c r="J13" t="n">
-        <v>1317.125611659023</v>
+        <v>385.3514573137349</v>
       </c>
       <c r="K13" t="n">
-        <v>290.3942176183319</v>
+        <v>298.4148920398512</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002748858048008296</v>
+        <v>0.0001854137581845729</v>
       </c>
       <c r="M13" t="n">
-        <v>1.141978670108727</v>
+        <v>1.138521858120564</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>0.0551</v>
+        <v>0.0223</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4207611185288628</v>
+        <v>0.2028831581110675</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9026540538576334</v>
+        <v>0.966754776601058</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>0.07219006983290333</v>
+        <v>0.05704997455815431</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5655771936673958</v>
+        <v>0.5014406956441307</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9999266286325873</v>
+        <v>1.000112639112555</v>
       </c>
       <c r="V13" t="n">
-        <v>1.000697449341831</v>
+        <v>1.000593191980808</v>
       </c>
       <c r="W13" t="n">
-        <v>1607.519829277354</v>
+        <v>683.7663493535861</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1892,63 +1892,63 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.000362183571339</v>
+        <v>1.000378525146233</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002546187452370103</v>
+        <v>0.0002127780896103816</v>
       </c>
       <c r="E14" t="n">
-        <v>330.3579841121268</v>
+        <v>330.3525875851087</v>
       </c>
       <c r="F14" t="n">
-        <v>1448.45233577535</v>
+        <v>1448.452311520035</v>
       </c>
       <c r="G14" t="n">
-        <v>1118.094351663223</v>
+        <v>1118.099723934926</v>
       </c>
       <c r="H14" t="n">
-        <v>186355.0315746641</v>
+        <v>184730.9955225327</v>
       </c>
       <c r="I14" t="n">
-        <v>32617.26950147899</v>
+        <v>32208.20254508602</v>
       </c>
       <c r="J14" t="n">
-        <v>1013.872319307121</v>
+        <v>1053.42233645493</v>
       </c>
       <c r="K14" t="n">
-        <v>363.0288746576126</v>
+        <v>371.7519333243947</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002546187452370103</v>
+        <v>0.0002127780896103816</v>
       </c>
       <c r="M14" t="n">
-        <v>1.338556397852729</v>
+        <v>1.335970620806063</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0.0422</v>
+        <v>0.0417</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01406233961888154</v>
+        <v>1.564687268640341e-11</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9026540539006842</v>
+        <v>0.9667547764653941</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>0.0727636560955231</v>
+        <v>0.05658662466204038</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6200315375394064</v>
+        <v>0.5584247719080323</v>
       </c>
       <c r="U14" t="n">
-        <v>1.00001418142829</v>
+        <v>1.000080980681096</v>
       </c>
       <c r="V14" t="n">
-        <v>1.000710428006253</v>
+        <v>1.000676246715142</v>
       </c>
       <c r="W14" t="n">
-        <v>1376.901193964734</v>
+        <v>1425.174269779325</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1998,63 +1998,63 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.000369316660787</v>
+        <v>1.000398106760277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0002450856767045947</v>
+        <v>0.0001944575843468361</v>
       </c>
       <c r="E15" t="n">
-        <v>330.3556285090397</v>
+        <v>330.346121322503</v>
       </c>
       <c r="F15" t="n">
-        <v>1448.455617584272</v>
+        <v>1448.452121031321</v>
       </c>
       <c r="G15" t="n">
-        <v>1118.099989075233</v>
+        <v>1118.105999708818</v>
       </c>
       <c r="H15" t="n">
-        <v>186430.4097024177</v>
+        <v>177318.4945904154</v>
       </c>
       <c r="I15" t="n">
-        <v>29027.96409291457</v>
+        <v>28658.13668903646</v>
       </c>
       <c r="J15" t="n">
-        <v>656.2873694239387</v>
+        <v>747.0703433040944</v>
       </c>
       <c r="K15" t="n">
-        <v>327.8006363334702</v>
+        <v>336.0513328989534</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002450856767045947</v>
+        <v>0.0001944575843468361</v>
       </c>
       <c r="M15" t="n">
-        <v>1.259297815994326</v>
+        <v>1.26374953414113</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>0.0362</v>
+        <v>0.0303</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1867701496240188</v>
+        <v>0.05101183349982408</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9026540743718781</v>
+        <v>0.9667547766032574</v>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>0.07242210507183436</v>
+        <v>0.05664336069790467</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6028019409037273</v>
+        <v>0.5401666095712431</v>
       </c>
       <c r="U15" t="n">
-        <v>1.000040499789301</v>
+        <v>1.000134882577428</v>
       </c>
       <c r="V15" t="n">
-        <v>1.000698349835707</v>
+        <v>1.000661469534854</v>
       </c>
       <c r="W15" t="n">
-        <v>984.0880057574088</v>
+        <v>1083.121676203048</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2104,63 +2104,63 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.000371021619719</v>
+        <v>1.000381894638103</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0009071400773945358</v>
+        <v>0.0006424264928325304</v>
       </c>
       <c r="E16" t="n">
-        <v>330.355065475158</v>
+        <v>330.351474889683</v>
       </c>
       <c r="F16" t="n">
-        <v>1448.225767451016</v>
+        <v>1448.222176602116</v>
       </c>
       <c r="G16" t="n">
-        <v>1117.870701975858</v>
+        <v>1117.870701712433</v>
       </c>
       <c r="H16" t="n">
-        <v>182383.1839520298</v>
+        <v>166219.4627732529</v>
       </c>
       <c r="I16" t="n">
-        <v>11320.3827494943</v>
+        <v>11320.37620167017</v>
       </c>
       <c r="J16" t="n">
-        <v>5790.458774066127</v>
+        <v>3977.925923704083</v>
       </c>
       <c r="K16" t="n">
-        <v>98.6344016039568</v>
+        <v>98.63412933329468</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0009071400773945357</v>
+        <v>0.0006424264928325304</v>
       </c>
       <c r="M16" t="n">
-        <v>1.141978670129528</v>
+        <v>1.04077073847429</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>0.296</v>
+        <v>0.207</v>
       </c>
       <c r="P16" t="n">
-        <v>0.662949746003474</v>
+        <v>0.5568958722763655</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.199585993618228</v>
+        <v>1.199587611586693</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>0.04680913667144905</v>
+        <v>0.04680923020356405</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1911848875780441</v>
+        <v>0.1911817052801613</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9993340136659323</v>
+        <v>0.9996138907047611</v>
       </c>
       <c r="V16" t="n">
-        <v>1.001410184013497</v>
+        <v>1.001151079594563</v>
       </c>
       <c r="W16" t="n">
-        <v>5889.093175670084</v>
+        <v>4076.560053037378</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2210,63 +2210,63 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.000535422695822</v>
+        <v>1.000546013947115</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003463163172793405</v>
+        <v>0.0002182288813359457</v>
       </c>
       <c r="E17" t="n">
-        <v>330.3007838105329</v>
+        <v>330.2972874210068</v>
       </c>
       <c r="F17" t="n">
-        <v>1448.417168739311</v>
+        <v>1448.423814397355</v>
       </c>
       <c r="G17" t="n">
-        <v>1118.116384928778</v>
+        <v>1118.126526976348</v>
       </c>
       <c r="H17" t="n">
-        <v>186413.0147487033</v>
+        <v>169892.1495613858</v>
       </c>
       <c r="I17" t="n">
-        <v>30486.56995158006</v>
+        <v>30071.65754066255</v>
       </c>
       <c r="J17" t="n">
-        <v>2156.748280563013</v>
+        <v>944.556829598556</v>
       </c>
       <c r="K17" t="n">
-        <v>381.4685567280092</v>
+        <v>396.0063190400496</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003463163172793405</v>
+        <v>0.0002182288813359456</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14197867011078</v>
+        <v>1.089540478911342</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>0.0867</v>
+        <v>0.0394</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4622753567666198</v>
+        <v>0.3237524710348398</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9026540538572035</v>
+        <v>0.9667547764624183</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>0.07461803139916712</v>
+        <v>0.0603591347804728</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4350525987904912</v>
+        <v>0.3652243087331303</v>
       </c>
       <c r="U17" t="n">
-        <v>1.000047002378227</v>
+        <v>1.000243911958916</v>
       </c>
       <c r="V17" t="n">
-        <v>1.001024320332927</v>
+        <v>1.000848298477158</v>
       </c>
       <c r="W17" t="n">
-        <v>2538.216837291023</v>
+        <v>1340.563148638606</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2316,63 +2316,63 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.000556191165461</v>
+        <v>1.000556204867155</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002451629474096327</v>
+        <v>0.0002451621001681693</v>
       </c>
       <c r="E18" t="n">
-        <v>330.2939277819951</v>
+        <v>330.2939232589245</v>
       </c>
       <c r="F18" t="n">
-        <v>1448.113652873594</v>
+        <v>1448.113652480321</v>
       </c>
       <c r="G18" t="n">
-        <v>1117.819725091599</v>
+        <v>1117.819729221397</v>
       </c>
       <c r="H18" t="n">
-        <v>200344.0487998235</v>
+        <v>200343.6889996669</v>
       </c>
       <c r="I18" t="n">
-        <v>50303.26870093947</v>
+        <v>50302.46878140346</v>
       </c>
       <c r="J18" t="n">
-        <v>1714.594799932933</v>
+        <v>1714.598527670694</v>
       </c>
       <c r="K18" t="n">
-        <v>406.4788564444369</v>
+        <v>406.4360015869108</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002451629474096327</v>
+        <v>0.0002451621001681693</v>
       </c>
       <c r="M18" t="n">
-        <v>1.439798307337978</v>
+        <v>1.439797053657305</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
         <v>0.0625</v>
       </c>
       <c r="P18" t="n">
-        <v>9.065026507215634e-12</v>
+        <v>1.276343475353769e-10</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.200417731087295</v>
+        <v>1.200454956578027</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>0.05148626520918476</v>
+        <v>0.05148582334330743</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07293497150311695</v>
+        <v>0.07284873783548651</v>
       </c>
       <c r="U18" t="n">
-        <v>1.000211012801039</v>
+        <v>1.000211027830898</v>
       </c>
       <c r="V18" t="n">
-        <v>1.000901607858065</v>
+        <v>1.000901620229756</v>
       </c>
       <c r="W18" t="n">
-        <v>2121.07365637737</v>
+        <v>2121.034529257604</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2422,63 +2422,63 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.00068185369694</v>
+        <v>1.000679521699873</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001031493831513536</v>
+        <v>0.0007485755011102785</v>
       </c>
       <c r="E19" t="n">
-        <v>330.2524504923413</v>
+        <v>330.2532201171102</v>
       </c>
       <c r="F19" t="n">
-        <v>1448.263367855135</v>
+        <v>1448.262964735052</v>
       </c>
       <c r="G19" t="n">
-        <v>1118.010917362793</v>
+        <v>1118.009744617942</v>
       </c>
       <c r="H19" t="n">
-        <v>152139.1588515796</v>
+        <v>138655.8163212872</v>
       </c>
       <c r="I19" t="n">
-        <v>9456.198071165654</v>
+        <v>9309.35874588399</v>
       </c>
       <c r="J19" t="n">
-        <v>5421.477265095805</v>
+        <v>3875.066622084386</v>
       </c>
       <c r="K19" t="n">
-        <v>106.763724023916</v>
+        <v>106.3963682715556</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001031493831513536</v>
+        <v>0.0007485755011102785</v>
       </c>
       <c r="M19" t="n">
-        <v>1.141978670124289</v>
+        <v>1.040770738512805</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>0.339</v>
+        <v>0.245</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6885184197274312</v>
+        <v>0.5725383092056625</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9026540546024922</v>
+        <v>0.966754777479307</v>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>0.03352186515639428</v>
+        <v>0.03305247675647943</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5052346632969649</v>
+        <v>0.4363087935917587</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9995543651472718</v>
+        <v>0.9998377211123994</v>
       </c>
       <c r="V19" t="n">
-        <v>1.001811888713373</v>
+        <v>1.001522740968274</v>
       </c>
       <c r="W19" t="n">
-        <v>5528.24098911972</v>
+        <v>3981.462990355942</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2528,63 +2528,63 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.000630374050036</v>
+        <v>1.000623752947993</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001690380401027435</v>
+        <v>0.0001663989752930721</v>
       </c>
       <c r="E20" t="n">
-        <v>330.2694410614677</v>
+        <v>330.2716264459987</v>
       </c>
       <c r="F20" t="n">
-        <v>1448.04777445864</v>
+        <v>1448.049960350306</v>
       </c>
       <c r="G20" t="n">
-        <v>1117.778333397173</v>
+        <v>1117.778333904308</v>
       </c>
       <c r="H20" t="n">
-        <v>186331.8383007309</v>
+        <v>181451.0989091751</v>
       </c>
       <c r="I20" t="n">
-        <v>35579.15847017918</v>
+        <v>35579.29581417736</v>
       </c>
       <c r="J20" t="n">
-        <v>561.3600955227431</v>
+        <v>511.8085724489832</v>
       </c>
       <c r="K20" t="n">
-        <v>267.5994121176187</v>
+        <v>267.6072157735056</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001690380401027435</v>
+        <v>0.0001663989752930721</v>
       </c>
       <c r="M20" t="n">
-        <v>1.297538001132387</v>
+        <v>1.300966314682462</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>0.0213</v>
+        <v>0.0189</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08839086774276689</v>
+        <v>0.0140287385748723</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.208418192341834</v>
+        <v>1.208408319731498</v>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>0.05160510285336282</v>
+        <v>0.05160471377723665</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1277117698128304</v>
+        <v>0.1277335117101925</v>
       </c>
       <c r="U20" t="n">
-        <v>1.000409539327557</v>
+        <v>1.000410190448252</v>
       </c>
       <c r="V20" t="n">
-        <v>1.000851306290063</v>
+        <v>1.000837406647684</v>
       </c>
       <c r="W20" t="n">
-        <v>828.9595076403618</v>
+        <v>779.4157882224888</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2634,63 +2634,63 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.000263382926928</v>
+        <v>1.000278067031055</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0008077116368715925</v>
+        <v>0.0005572819566420794</v>
       </c>
       <c r="E21" t="n">
-        <v>330.3906150993985</v>
+        <v>330.3857649578681</v>
       </c>
       <c r="F21" t="n">
-        <v>1448.213848815554</v>
+        <v>1448.208995472773</v>
       </c>
       <c r="G21" t="n">
-        <v>1117.823233716156</v>
+        <v>1117.823230514904</v>
       </c>
       <c r="H21" t="n">
-        <v>186627.55250578</v>
+        <v>170087.6738951987</v>
       </c>
       <c r="I21" t="n">
-        <v>13224.75551932601</v>
+        <v>13224.95072863108</v>
       </c>
       <c r="J21" t="n">
-        <v>5373.148081084029</v>
+        <v>3551.373092285165</v>
       </c>
       <c r="K21" t="n">
-        <v>108.0683239857994</v>
+        <v>108.082794011224</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0008077116368715925</v>
+        <v>0.0005572819566420794</v>
       </c>
       <c r="M21" t="n">
-        <v>1.141978670117583</v>
+        <v>1.040770738466914</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>0.262</v>
+        <v>0.177</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6391219702918165</v>
+        <v>0.5413615400048979</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.205480244746301</v>
+        <v>1.205442502642976</v>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>0.05069954124159816</v>
+        <v>0.05069957918598409</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1880497961498833</v>
+        <v>0.1881299720143866</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9993175747444432</v>
+        <v>0.999589157112487</v>
       </c>
       <c r="V21" t="n">
-        <v>1.001210983133482</v>
+        <v>1.000967927188403</v>
       </c>
       <c r="W21" t="n">
-        <v>5481.216405069828</v>
+        <v>3659.455886296389</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2740,63 +2740,63 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.000668021042998</v>
+        <v>1.000662385907012</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001710226594055196</v>
+        <v>0.0001433565761562489</v>
       </c>
       <c r="E22" t="n">
-        <v>330.2570157105406</v>
+        <v>330.2588755218214</v>
       </c>
       <c r="F22" t="n">
-        <v>1448.195285224557</v>
+        <v>1448.197145711372</v>
       </c>
       <c r="G22" t="n">
-        <v>1117.938269514016</v>
+        <v>1117.938270189551</v>
       </c>
       <c r="H22" t="n">
-        <v>186099.9055930804</v>
+        <v>174291.7654670479</v>
       </c>
       <c r="I22" t="n">
-        <v>36203.16920938039</v>
+        <v>36203.2023375203</v>
       </c>
       <c r="J22" t="n">
-        <v>753.4477193717872</v>
+        <v>547.9827234958381</v>
       </c>
       <c r="K22" t="n">
-        <v>379.8122240818844</v>
+        <v>379.8123386418543</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001710226594055196</v>
+        <v>0.0001433565761562489</v>
       </c>
       <c r="M22" t="n">
-        <v>1.282289229862889</v>
+        <v>1.281575955177148</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>0.0364</v>
+        <v>0.0194</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1635888759201454</v>
+        <v>4.600209102534336e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.138491961634272</v>
+        <v>1.138489139638806</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>0.0431878719854067</v>
+        <v>0.04318759484552572</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1863647227826463</v>
+        <v>0.1863698097896328</v>
       </c>
       <c r="U22" t="n">
-        <v>1.000426930478117</v>
+        <v>1.000472785596469</v>
       </c>
       <c r="V22" t="n">
-        <v>1.0009092278356</v>
+        <v>1.000852058093757</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.259943453672</v>
+        <v>927.7950621376924</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2846,63 +2846,63 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.000562025929581</v>
+        <v>1.000561773075112</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001623547458516332</v>
+        <v>0.0001307992535890961</v>
       </c>
       <c r="E23" t="n">
-        <v>330.2920016773569</v>
+        <v>330.2920851462752</v>
       </c>
       <c r="F23" t="n">
-        <v>1448.272796774929</v>
+        <v>1448.272873779895</v>
       </c>
       <c r="G23" t="n">
-        <v>1117.980795097572</v>
+        <v>1117.98078863362</v>
       </c>
       <c r="H23" t="n">
-        <v>186076.7123231745</v>
+        <v>174618.7205648902</v>
       </c>
       <c r="I23" t="n">
-        <v>37778.85249464157</v>
+        <v>37778.22074487217</v>
       </c>
       <c r="J23" t="n">
-        <v>790.7788514266673</v>
+        <v>606.5945809662725</v>
       </c>
       <c r="K23" t="n">
-        <v>416.1780592644944</v>
+        <v>416.1642650520449</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001623547458516332</v>
+        <v>0.0001307992535890961</v>
       </c>
       <c r="M23" t="n">
-        <v>1.288300001804662</v>
+        <v>1.285498881478998</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>0.0394</v>
+        <v>0.0233</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1529531463328521</v>
+        <v>1.466826660134757e-12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.041126187860677</v>
+        <v>1.041188533227374</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>0.03637614892499627</v>
+        <v>0.0363802033064495</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3244378997005253</v>
+        <v>0.3243482973057087</v>
       </c>
       <c r="U23" t="n">
-        <v>1.000332527951345</v>
+        <v>1.000381015058049</v>
       </c>
       <c r="V23" t="n">
-        <v>1.000791629235609</v>
+        <v>1.000742596426012</v>
       </c>
       <c r="W23" t="n">
-        <v>1206.956910691162</v>
+        <v>1022.758846018317</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2952,63 +2952,63 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.000537926241154</v>
+        <v>1.000529970614465</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001658759331356651</v>
+        <v>0.0001598352009371205</v>
       </c>
       <c r="E24" t="n">
-        <v>330.2999573321317</v>
+        <v>330.3025836833988</v>
       </c>
       <c r="F24" t="n">
-        <v>1448.115531841017</v>
+        <v>1448.118159478149</v>
       </c>
       <c r="G24" t="n">
-        <v>1117.815574508885</v>
+        <v>1117.81557579475</v>
       </c>
       <c r="H24" t="n">
-        <v>186381.1240010097</v>
+        <v>179475.6959950436</v>
       </c>
       <c r="I24" t="n">
-        <v>30474.34503595754</v>
+        <v>30474.21763941606</v>
       </c>
       <c r="J24" t="n">
-        <v>410.2937606348432</v>
+        <v>318.0349665928687</v>
       </c>
       <c r="K24" t="n">
-        <v>258.7015077849923</v>
+        <v>258.6950229373038</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001658759331356651</v>
+        <v>0.0001598352009371205</v>
       </c>
       <c r="M24" t="n">
-        <v>1.259763845109068</v>
+        <v>1.263140521994647</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>0.019</v>
+        <v>0.0121</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2030835444786168</v>
+        <v>0.1018694401453049</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.231750611035455</v>
+        <v>1.23176083787558</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>0.05138885190160419</v>
+        <v>0.05138865931911731</v>
       </c>
       <c r="T24" t="n">
-        <v>0.161064480275315</v>
+        <v>0.1610418934846503</v>
       </c>
       <c r="U24" t="n">
-        <v>1.000324751188594</v>
+        <v>1.000337692073293</v>
       </c>
       <c r="V24" t="n">
-        <v>1.000751192170781</v>
+        <v>1.000722323086962</v>
       </c>
       <c r="W24" t="n">
-        <v>668.9952684198355</v>
+        <v>576.7299895301726</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3058,63 +3058,63 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.000098341214732</v>
+        <v>1.000127464796731</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0003608702268031923</v>
+        <v>0.0003382886379866411</v>
       </c>
       <c r="E25" t="n">
-        <v>330.4451379703626</v>
+        <v>330.4355154508232</v>
       </c>
       <c r="F25" t="n">
-        <v>1448.55387893569</v>
+        <v>1448.553877183726</v>
       </c>
       <c r="G25" t="n">
-        <v>1118.108740965327</v>
+        <v>1118.118361732903</v>
       </c>
       <c r="H25" t="n">
-        <v>201929.370306867</v>
+        <v>201929.9314912038</v>
       </c>
       <c r="I25" t="n">
-        <v>50279.25657920503</v>
+        <v>49575.40578968598</v>
       </c>
       <c r="J25" t="n">
-        <v>2318.612232096947</v>
+        <v>2318.609647393915</v>
       </c>
       <c r="K25" t="n">
-        <v>588.7588923803547</v>
+        <v>609.8269431612964</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003608702268031923</v>
+        <v>0.0003382886379866411</v>
       </c>
       <c r="M25" t="n">
-        <v>1.401789996608953</v>
+        <v>1.40179168136669</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
         <v>0.096</v>
       </c>
       <c r="P25" t="n">
-        <v>2.557193345964492e-10</v>
+        <v>2.689626299456904e-12</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9026540538592208</v>
+        <v>0.9667547765072843</v>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>0.07073924398415805</v>
+        <v>0.05726556814746184</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4263394113692132</v>
+        <v>0.3559334712971654</v>
       </c>
       <c r="U25" t="n">
-        <v>0.999593956306576</v>
+        <v>0.9996637917596743</v>
       </c>
       <c r="V25" t="n">
-        <v>1.000603235394815</v>
+        <v>1.000591568163371</v>
       </c>
       <c r="W25" t="n">
-        <v>2907.371124477301</v>
+        <v>2928.436590555211</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
